--- a/00 포트폴리오/포트폴리오기획서-정재녕(앵글340)-2.xlsx
+++ b/00 포트폴리오/포트폴리오기획서-정재녕(앵글340)-2.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="76">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
   <x:si>
     <x:t>앵글340 크림라떼</x:t>
   </x:si>
@@ -249,6 +249,9 @@
     <x:t>메뉴구축</x:t>
   </x:si>
   <x:si>
+    <x:t>https://www.dessert39.com/main.php</x:t>
+  </x:si>
+  <x:si>
     <x:t xml:space="preserve">1. 웹사이트를 방문하는 사용자에게 브랜드 아이덴티티 강조
 2. 네비게이션 메뉴를 구현하여 사용자에게 가독성있고 정돈된 정보를 전달 
 3. "도심 속 숨겨진 감성 갤러리 카페" 를 컨셉으로 방문 전부터 공간의 무드와 감성을 체험할 수 있게 전달  </x:t>
@@ -267,7 +270,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="12">
+  <x:fonts count="13">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -366,6 +369,31 @@
       <x:color rgb="ff000000"/>
       <x:b val="1"/>
     </x:font>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineType val="1"/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="3">
     <x:fill>
@@ -489,7 +517,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="25">
+  <x:cellXfs count="26">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -694,6 +722,9 @@
     </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
@@ -1853,7 +1884,7 @@
         <x:v>21</x:v>
       </x:c>
       <x:c r="F4" s="10">
-        <x:v>45765</x:v>
+        <x:v>45774</x:v>
       </x:c>
       <x:c r="G4" s="9"/>
     </x:row>
@@ -1875,7 +1906,7 @@
         <x:v>5</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>72</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C6" s="12"/>
       <x:c r="D6" s="12"/>
@@ -1898,12 +1929,14 @@
     </x:row>
     <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A8" s="15"/>
-      <x:c r="B8" s="16"/>
-      <x:c r="C8" s="16"/>
-      <x:c r="D8" s="16"/>
-      <x:c r="E8" s="16"/>
-      <x:c r="F8" s="16"/>
-      <x:c r="G8" s="16"/>
+      <x:c r="B8" s="25" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C8" s="25"/>
+      <x:c r="D8" s="25"/>
+      <x:c r="E8" s="25"/>
+      <x:c r="F8" s="25"/>
+      <x:c r="G8" s="25"/>
     </x:row>
     <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A9" s="15"/>
@@ -2174,6 +2207,7 @@
   </x:mergeCells>
   <x:hyperlinks>
     <x:hyperlink ref="B7:G7" r:id="rId1"/>
+    <x:hyperlink ref="B8:G8" r:id="rId2"/>
   </x:hyperlinks>
   <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="91" firstPageNumber="1" fitToWidth="1" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2226,13 +2260,13 @@
         <x:v>49</x:v>
       </x:c>
       <x:c r="F6" t="s">
-        <x:v>74</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:6">
       <x:c r="B7" s="4"/>
       <x:c r="F7" t="s">
-        <x:v>75</x:v>
+        <x:v>76</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:6">
@@ -2243,7 +2277,7 @@
         <x:v>29</x:v>
       </x:c>
       <x:c r="F8" t="s">
-        <x:v>73</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="65.5">

--- a/00 포트폴리오/포트폴리오기획서-정재녕(앵글340)-2.xlsx
+++ b/00 포트폴리오/포트폴리오기획서-정재녕(앵글340)-2.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.3437"/>
+  <x:fileVersion appName="HCell" lastEdited="12.0" lowestEdited="12.0" rupBuild="0.535"/>
   <x:workbookPr date1904="0" showBorderUnselectedTables="1" filterPrivacy="0" promptedSolutions="0" showInkAnnotation="1" backupFile="0" saveExternalLinkValues="1" codeName="ThisWorkbook" hidePivotFieldList="0" allowRefreshQuery="0" publishItems="0" checkCompatibility="0" autoCompressPictures="1" refreshAllConnections="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\웹디자인-웹퍼블리셔\JJN\00 포트폴리오\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JJN\00 포트폴리오\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="28545" windowHeight="11460" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="30468" windowHeight="12552" activeTab="1"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="포트폴리오 기획서(양식)" sheetId="1" r:id="rId4"/>
@@ -21,48 +21,91 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="77">
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
+  <x:si>
+    <x:t>VISIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페 인테리어, 분위기, 창가자리, 자연광 포인트 소개
+(공간별 사진 슬라이드 및 줌인아웃 효과 + 사진별 간단한 설명 추가)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">웹페이지를 통한 브랜드 아이덴티티를 부각하고 이미지 선호도를 향상시킨다.
+리디자인을 통해 사용자 친화적이고 접근성이 높은 플랫폼으로 거듭날 수 있도록 구현한다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>■ 개인 카페 인스타그램 홍보의 한계점,  홈페이지 홍보를 활용해야하는 이유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>을지로 - 낡은 간판, 세월이 스며든 골목길, 공구상점의 요소들을 현대적인 감각으로 반영, 거친 질감의 벽면, 노출 콘크리트 다채로운 컬러의 빈티지 체어 &amp; 조명, 창문을 통해 들어오는 자연광 -&gt; 하나의 전시공간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>콜렉팅한 그림 작품과 세련된 그림이 어우러져 마치 갤러리에 온 듯한 분위기의 카페, 커피를 마시고 대화를 나누거나 사색을 나누기에 넓고 편한공간 벽면에 걸린 감각적인 포스터와 창밖으로 보이는 도심풍경이 어우러지면서 감각적인 경험 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시적 감성 카페, 외벽 아트워크, 빈티지한 분위기 &amp; 거칠면서도 감각적인 인테리어를 반영한 페이지구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.bosa.co.kr/news/articleView.html?idxno=2222508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=90094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조용하지만 감각적인 느낌의 까페를 찾고 싶어하는 고객 , 을지로의 힙한 감성 카페 타이틀 홍보, 나만 알고 싶은 을지로 핫플레이스로의 이미지 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1. 웹사이트를 방문하는 사용자에게 브랜드 아이덴티티 강조
+2. 네비게이션 메뉴를 구현하여 사용자에게 가독성있고 정돈된 정보를 전달 
+3. "도심 속 숨겨진 감성 갤러리 카페" 를 컨셉으로 방문 전부터 공간의 무드와 감성을 체험할 수 있게 전달  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>해시태그 검색 -&gt; 노출의 한계점 -&gt; 홈페이지 검색 엔진 최적화(SEO)를 통해 포털사이트의 검색확률을 높이고 지속적인 방문자 유입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영업시간, 메뉴, 이벤트 등 중요한 정보들을 찾기위한 고객의  불필요한 시간낭비 줄이기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://blog.naver.com/reading_mindset/223827060245</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.dessert39.com/main.php</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디 철학/연혁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 정보의 한계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹사이트 이미지 반영</x:t>
+  </x:si>
   <x:si>
     <x:t>앵글340 크림라떼</x:t>
   </x:si>
   <x:si>
-    <x:t>을지로 - 낡은 간판, 세월이 스며든 골목길, 공구상점의 요소들을 현대적인 감각으로 반영, 거친 질감의 벽면, 노출 콘크리트 다채로운 컬러의 빈티지 체어 &amp; 조명, 창문을 통해 들어오는 자연광 -&gt; 하나의 전시공간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웹사이트 이미지 반영</x:t>
+    <x:t>ABOUT US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기획의도(목적)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포트폴리오 기획서</x:t>
   </x:si>
   <x:si>
     <x:t>PRODUCTS</x:t>
   </x:si>
   <x:si>
-    <x:t>ABOUT US</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기획의도(목적)</x:t>
-  </x:si>
-  <x:si>
     <x:t>MY INBODY</x:t>
   </x:si>
   <x:si>
     <x:t>2.감각적인 인테리어</x:t>
   </x:si>
   <x:si>
-    <x:t>인바디 철학/연혁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포트폴리오 기획서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 정보의 한계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>콜렉팅한 그림 작품과 세련된 그림이 어우러져 마치 갤러리에 온 듯한 분위기의 카페, 커피를 마시고 대화를 나누거나 사색을 나누기에 넓고 편한공간 벽면에 걸린 감각적인 포스터와 창밖으로 보이는 도심풍경이 어우러지면서 감각적인 경험 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영업시간, 메뉴, 이벤트 등 중요한 정보들을 찾기위한 고객의  불필요한 시간낭비 줄이기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://blog.naver.com/reading_mindset/223827060245</x:t>
+    <x:t>독창적인 가구 및 오브제, 햇살 가득한 창가자리 -&gt; 따뜻한 나무질감의 바닥, 거친 콘크리트 벽의 조화 및 커다란 화분의 도심속 작은 정원을 연상</x:t>
   </x:si>
   <x:si>
     <x:t>의료분야가 치료 중심에서 예방‧관리 중심으로 패러다임이 변화 -&gt; 건강관리에 있어 ‘체성분 분석기기’ 의 중요성이 더 강화 전망
@@ -74,89 +117,126 @@
 웹사이트 전체의 레이아웃과 시각적 요소를 안정적이고 신뢰감 있는 브랜드 이미지를 전달할 수 있도록 리디자인 -&gt; 사용자 진입 후 개인용 제품 탐색 비율 증가를 목표</x:t>
   </x:si>
   <x:si>
-    <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=90094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://www.bosa.co.kr/news/articleView.html?idxno=2222508</x:t>
+    <x:t xml:space="preserve"> 아늑한 분위기,  감각적인 빈티지 인테리어, 커피와 음악을 함께 하기 좋은 장소라는 컨셉 구축(커피+음악+공간을 같이 즐기는 컨셉)
+ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.enewstoday.co.kr/news/articleView.html?idxno=2153878#:~:text=%ED%95%9C%EA%B5%ADIR%ED%98%91%EC%9D%98%ED%9A%8C%20%EA%B8%B0%EC%97%85%EB%A6%AC%EC%84%9C%EC%B9%98%EC%84%BC%ED%84%B0%EB%8A%94%20%EB%A6%AC%EC%8A%A4%ED%81%AC%20%EC%9A%94%EC%9D%B8%EC%9C%BC%EB%A1%9C%20'%EC%84%B1%EC%9E%A5%EC%84%B1%20%EB%91%94%ED%99%94%EC%97%90%20%EB%8C%80%ED%95%9C,%EC%9A%B0%EB%A0%A4%EA%B0%80%20%EC%9E%88%EC%9C%BC%EB%A9%B0%2C%20%EC%9D%B4%EB%A1%9C%20%EC%9D%B8%ED%95%B4%20%EC%97%85%EA%B3%84%201%EC%9C%84%20%EA%B8%B0%EC%97%85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
   </x:si>
   <x:si>
     <x:t>구성</x:t>
   </x:si>
   <x:si>
+    <x:t>주제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
     <x:t>과정명</x:t>
   </x:si>
   <x:si>
-    <x:t>개인용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디</x:t>
-  </x:si>
-  <x:si>
     <x:t>제출일</x:t>
   </x:si>
   <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
     <x:t>정재녕</x:t>
   </x:si>
   <x:si>
-    <x:t>주제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
+    <x:t>https://bwissue.com/cafeinfo/1856703</x:t>
   </x:si>
   <x:si>
     <x:t>https://collabospace.kr/space/angle340/</x:t>
   </x:si>
   <x:si>
-    <x:t>https://bwissue.com/cafeinfo/1856703</x:t>
+    <x:t>나에게 맞는 건강관리 여행 시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">카페의 정체성을 명확히 보여주고 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>시그니쳐 디저트 메뉴 UI 화</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3. 브랜딩과 신뢰도의 문제 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>인플루언서와 같이하는 건강체크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 검색 노출의 한계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BI소개/브랜드 파워 소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 모양 쿠키 일러화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디란? 인바디 용어 해설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.조용하고 아늑한 느낌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베이글라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABOUT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바다라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Section</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MENU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth1</x:t>
   </x:si>
   <x:si>
     <x:t>HOME</x:t>
   </x:si>
   <x:si>
-    <x:t>톤앤매너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 디저트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Section</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABOUT</x:t>
-  </x:si>
-  <x:si>
     <x:t>Footer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참고 사이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 의견</x:t>
   </x:si>
   <x:si>
     <x:t>메인화면
 구성</x:t>
   </x:si>
   <x:si>
-    <x:t>Depth1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MENU</x:t>
+    <x:t>톤앤매너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 디저트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 의견</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참고 사이트</x:t>
   </x:si>
   <x:si>
     <x:t>참고
@@ -166,111 +246,78 @@
     <x:t>메뉴 구성</x:t>
   </x:si>
   <x:si>
-    <x:t>1.조용하고 아늑한 느낌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SPACE &amp; GALLERY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BI소개/브랜드 파워 소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디란? 인바디 용어 해설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 모양 쿠키 일러화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 검색 노출의 한계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VISIT / CONTACT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앵글340 (1.만드는 목적 2.메뉴구성 3.레퍼런스 사이트)</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독창적인 가구 및 오브제, 햇살 가득한 창가자리 -&gt; 따듯한 나무질감의 바닥, 거친 콘크리트 벽의 조화 및 커다란 화분의 도심속 작은 정원을 연상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조용하지만 감각적인 느낌의 까페를 찾고 싶어하는 고객 , 을지로의 힙한 감성 카페 타이틀 홍보, 나만 알고 싶은 을지로 핫플레이스로의 이미지 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나에게 맞는 건강관리 여행 시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인플루언서와 같이하는 건강체크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시그니쳐 디저트 메뉴 UI 화</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">카페의 정체성을 명확히 보여주고 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3. 브랜딩과 신뢰도의 문제 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">웹페이지를 통한 브랜드 아이덴티티를 부각하고 이미지 선호도를 향상시킨다.
-리디자인을 통해 사용자 친화적이고 접근성이 높은 플랫폼으로 거듭날 수 있도록 구현한다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>해시태그 검색 -&gt; 노출의 한계점 -&gt; 홈페이지 검색 엔진 최적화(SEO)를 통해 포털사이트의 검색확률을 높이고 지속적인 방문자 유입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>■ 개인 카페 인스타그램 홍보의 한계점,  홈페이지 홍보를 활용해야하는 이유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시적 감성 카페, 외벽 아트워크, 빈티지한 분위기 &amp; 거칠면서도 감각적인 인테리어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.enewstoday.co.kr/news/articleView.html?idxno=2153878#:~:text=%ED%95%9C%EA%B5%ADIR%ED%98%91%EC%9D%98%ED%9A%8C%20%EA%B8%B0%EC%97%85%EB%A6%AC%EC%84%9C%EC%B9%98%EC%84%BC%ED%84%B0%EB%8A%94%20%EB%A6%AC%EC%8A%A4%ED%81%AC%20%EC%9A%94%EC%9D%B8%EC%9C%BC%EB%A1%9C%20'%EC%84%B1%EC%9E%A5%EC%84%B1%20%EB%91%94%ED%99%94%EC%97%90%20%EB%8C%80%ED%95%9C,%EC%9A%B0%EB%A0%A4%EA%B0%80%20%EC%9E%88%EC%9C%BC%EB%A9%B0%2C%20%EC%9D%B4%EB%A1%9C%20%EC%9D%B8%ED%95%B4%20%EC%97%85%EA%B3%84%201%EC%9C%84%20%EA%B8%B0%EC%97%85</x:t>
+    <x:t>청계천라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴구축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앵글340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://coffee9.co.kr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 갤러리에 온듯 한 분위기의 카페</x:t>
   </x:si>
   <x:si>
     <x:t>맞춤 건강 솔루션/사전 진단, 질병예방</x:t>
   </x:si>
   <x:si>
-    <x:t>https://coffee9.co.kr/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 갤러리에 온듯 한 분위기의 카페</x:t>
-  </x:si>
-  <x:si>
     <x:t>3.다양한 오리지널 빈티지 조명 및 인테리어</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve"> 1. 아늑한 분위기,  감각적인 빈티지 인테리어, 커피와 음악을 함께 하기 좋은 장소라는 컨셉 구축(커피+음악+공간을 갖이 즐기는 컨셉)
- 2.  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴구축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.dessert39.com/main.php</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1. 웹사이트를 방문하는 사용자에게 브랜드 아이덴티티 강조
-2. 네비게이션 메뉴를 구현하여 사용자에게 가독성있고 정돈된 정보를 전달 
-3. "도심 속 숨겨진 감성 갤러리 카페" 를 컨셉으로 방문 전부터 공간의 무드와 감성을 체험할 수 있게 전달  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>베이글라떼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청계천라떼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바다라떼</x:t>
+    <x:t>원두보관함,철제선반,조명 빈티지 가스레인지&amp;오븐 등등(오븐은 지금 수납공갑으로 쓰고 있답니다😳) 곳곳에 다양하게 인테리어 했습니다. 아 참!저희는 메뉴판도 스틸이랍니다!
+저희 앵글340은 을지로의 빈티지한 감성을 그대로 살린 거친 벽면과 을지로 특색을 살리고 싶어서 스틸을 전체적으로 사용하여 통일감을 주었습니다.
+전체적인 매장의 인테리어컨셉은 미드센츄리 모던 스타일로 꾸며 보았습니다 .빈티지한 감성을 그대로 살려 매장의 모든 가구와 조명들은 전부 오리지널 제품들로 꾸며져있습니다.
+저희 카페 앵글 340에서
+커피와 함께 공간도 같이 즐겨주세요.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. Blend
+Brazil, El salvador, Colombia
+Natural, Washed
+다크초콜릿과 견과류의 고소함과 후미에 맥주같은 쌉싸름함이 어우러지는 원두입니다.
+2. Single
+Ethiopia
+Natural, Washed
+포도, 체리의 상큼한 여운이 느껴지며 후미에 초콜릿이 부드럽게 마무리해주는 원두입니다.
+3. Decaf
+Antioguia, Caldas, Neiga, Colombia
+Ethyl Acetate Decaf
+초콜릿과 카라멜의 고소함과 사과의 상큼함이 밸런스있고 부드러운 디카페인 원두입니다.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GALLERY </x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPACE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원두소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지도, 운영시간, 전화번호를 제공해서 방문자가 쉽게 찾아올 수 있게 제공</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BI소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">카페에 전시된 그림, 포스터, 오브제 체험
+(사진 슬라이드 및 줌인아웃 효과 + 사진별 간단한 설명 추가) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드형 메뉴 소개 레이아웃(클릭 시 호버 기능으로 상세 확인 기능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>전체적인 내부 전경 이미지와 카페 분위기 설명</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="13">
+  <x:fonts count="12">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -316,10 +363,6 @@
           <hs:underlineType val="1"/>
           <hs:underlineShape val="solid"/>
           <hs:underlineColor rgb="ff0000ff"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
         </x:font>
       </mc:Choice>
       <mc:Fallback>
@@ -363,22 +406,13 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:font>
-      <x:name val="맑은 고딕"/>
-      <x:sz val="9"/>
-      <x:color rgb="ff000000"/>
-      <x:b val="1"/>
-    </x:font>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:font hs:extension="1">
           <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff0000ff"/>
-          <x:u/>
-          <hs:underlineType val="1"/>
-          <hs:underlineShape val="solid"/>
-          <hs:underlineColor rgb="ff0000ff"/>
+          <x:sz val="9"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
@@ -388,9 +422,9 @@
       <mc:Fallback>
         <x:font>
           <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff0000ff"/>
-          <x:u/>
+          <x:sz val="9"/>
+          <x:color rgb="ff000000"/>
+          <x:b val="1"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -517,7 +551,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="26">
+  <x:cellXfs count="27">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -723,8 +757,21 @@
     <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
@@ -736,7 +783,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -819,7 +865,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -854,7 +899,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -899,7 +943,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -943,7 +986,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1028,7 +1070,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1049,7 +1090,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1080,7 +1120,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1443,7 +1482,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="39.95000000000000284217" customHeight="1">
       <x:c r="A1" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B1" s="7"/>
       <x:c r="C1" s="7"/>
@@ -1455,10 +1494,10 @@
     <x:row r="2" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="3" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C3" s="8"/>
       <x:c r="D3" s="8"/>
@@ -1468,15 +1507,15 @@
     </x:row>
     <x:row r="4" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B4" s="9" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C4" s="9"/>
       <x:c r="D4" s="9"/>
       <x:c r="E4" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F4" s="10">
         <x:v>45765</x:v>
@@ -1485,10 +1524,10 @@
     </x:row>
     <x:row r="5" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A5" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B5" s="8" t="s">
-        <x:v>20</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C5" s="8"/>
       <x:c r="D5" s="8"/>
@@ -1498,10 +1537,10 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="61.79999999999999715783" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>61</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="C6" s="12"/>
       <x:c r="D6" s="12"/>
@@ -1511,10 +1550,10 @@
     </x:row>
     <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A7" s="14" t="s">
-        <x:v>43</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B7" s="16" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="C7" s="16"/>
       <x:c r="D7" s="16"/>
@@ -1525,7 +1564,7 @@
     <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A8" s="15"/>
       <x:c r="B8" s="16" t="s">
-        <x:v>65</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="C8" s="16"/>
       <x:c r="D8" s="16"/>
@@ -1536,7 +1575,7 @@
     <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A9" s="15"/>
       <x:c r="B9" s="16" t="s">
-        <x:v>15</x:v>
+        <x:v>8</x:v>
       </x:c>
       <x:c r="C9" s="16"/>
       <x:c r="D9" s="16"/>
@@ -1546,10 +1585,10 @@
     </x:row>
     <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A10" s="14" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C10" s="9"/>
       <x:c r="D10" s="9"/>
@@ -1560,7 +1599,7 @@
     <x:row r="11" spans="1:7" ht="120" customHeight="1">
       <x:c r="A11" s="15"/>
       <x:c r="B11" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
         <x:v>47</x:v>
@@ -1573,7 +1612,7 @@
     <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A12" s="15"/>
       <x:c r="B12" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C12" s="9"/>
       <x:c r="D12" s="9"/>
@@ -1583,25 +1622,25 @@
     </x:row>
     <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A13" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B13" s="15" t="s">
-        <x:v>41</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C13" s="15"/>
       <x:c r="D13" s="15" t="s">
-        <x:v>30</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E13" s="15"/>
       <x:c r="F13" s="15" t="s">
-        <x:v>32</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G13" s="15"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A14" s="18"/>
       <x:c r="B14" s="9" t="s">
-        <x:v>4</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="C14" s="9"/>
       <x:c r="D14" s="9"/>
@@ -1621,11 +1660,11 @@
     <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A16" s="18"/>
       <x:c r="B16" s="9" t="s">
-        <x:v>3</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C16" s="9"/>
       <x:c r="D16" s="9" t="s">
-        <x:v>28</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="E16" s="9"/>
       <x:c r="F16" s="9"/>
@@ -1636,7 +1675,7 @@
       <x:c r="B17" s="9"/>
       <x:c r="C17" s="9"/>
       <x:c r="D17" s="9" t="s">
-        <x:v>19</x:v>
+        <x:v>34</x:v>
       </x:c>
       <x:c r="E17" s="9"/>
       <x:c r="F17" s="9"/>
@@ -1654,11 +1693,11 @@
     <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A19" s="18"/>
       <x:c r="B19" s="9" t="s">
-        <x:v>6</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C19" s="9"/>
       <x:c r="D19" s="21" t="s">
-        <x:v>66</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E19" s="9"/>
       <x:c r="F19" s="9"/>
@@ -1669,7 +1708,7 @@
       <x:c r="B20" s="9"/>
       <x:c r="C20" s="9"/>
       <x:c r="D20" s="22" t="s">
-        <x:v>57</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="E20" s="23"/>
       <x:c r="F20" s="22"/>
@@ -1689,7 +1728,7 @@
       <x:c r="B22" s="22"/>
       <x:c r="C22" s="23"/>
       <x:c r="D22" s="22" t="s">
-        <x:v>48</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="E22" s="23"/>
       <x:c r="F22" s="22"/>
@@ -1700,7 +1739,7 @@
       <x:c r="B23" s="22"/>
       <x:c r="C23" s="23"/>
       <x:c r="D23" s="22" t="s">
-        <x:v>56</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="E23" s="23"/>
       <x:c r="F23" s="22"/>
@@ -1718,11 +1757,11 @@
     <x:row r="25" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A25" s="18"/>
       <x:c r="B25" s="19" t="s">
-        <x:v>31</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C25" s="20"/>
       <x:c r="D25" s="19" t="s">
-        <x:v>8</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="E25" s="20"/>
       <x:c r="F25" s="19"/>
@@ -1730,10 +1769,10 @@
     </x:row>
     <x:row r="26" spans="1:7" ht="239.40000000000000568434" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B26" s="24" t="s">
-        <x:v>14</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="C26" s="24"/>
       <x:c r="D26" s="24"/>
@@ -1834,21 +1873,21 @@
   <x:dimension ref="A1:G26"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <x:selection activeCell="B6" activeCellId="0" sqref="B6:G6"/>
+      <x:selection activeCell="D14" activeCellId="0" sqref="D14:E14"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
   <x:cols>
     <x:col min="1" max="1" width="14.41796875" bestFit="1" customWidth="1"/>
     <x:col min="2" max="4" width="12.625" customWidth="1"/>
-    <x:col min="5" max="5" width="37" customWidth="1"/>
+    <x:col min="5" max="5" width="55.1015625" customWidth="1"/>
     <x:col min="6" max="6" width="12.625" customWidth="1"/>
     <x:col min="7" max="7" width="25.6015625" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="39.95000000000000284217" customHeight="1">
       <x:c r="A1" s="7" t="s">
-        <x:v>9</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="B1" s="7"/>
       <x:c r="C1" s="7"/>
@@ -1860,10 +1899,10 @@
     <x:row r="2" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="3" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>18</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="B3" s="8" t="s">
-        <x:v>53</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="C3" s="8"/>
       <x:c r="D3" s="8"/>
@@ -1873,27 +1912,27 @@
     </x:row>
     <x:row r="4" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>25</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="B4" s="9" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C4" s="9"/>
       <x:c r="D4" s="9"/>
       <x:c r="E4" s="1" t="s">
-        <x:v>21</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="F4" s="10">
-        <x:v>45774</x:v>
+        <x:v>45775</x:v>
       </x:c>
       <x:c r="G4" s="9"/>
     </x:row>
     <x:row r="5" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A5" s="1" t="s">
-        <x:v>24</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="B5" s="8" t="s">
-        <x:v>52</x:v>
+        <x:v>72</x:v>
       </x:c>
       <x:c r="C5" s="8"/>
       <x:c r="D5" s="8"/>
@@ -1903,10 +1942,10 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="69.75" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>5</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="B6" s="11" t="s">
-        <x:v>73</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="12"/>
       <x:c r="D6" s="12"/>
@@ -1916,10 +1955,10 @@
     </x:row>
     <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A7" s="14" t="s">
-        <x:v>43</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="B7" s="16" t="s">
-        <x:v>67</x:v>
+        <x:v>73</x:v>
       </x:c>
       <x:c r="C7" s="16"/>
       <x:c r="D7" s="16"/>
@@ -1929,14 +1968,14 @@
     </x:row>
     <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A8" s="15"/>
-      <x:c r="B8" s="25" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="C8" s="25"/>
-      <x:c r="D8" s="25"/>
-      <x:c r="E8" s="25"/>
-      <x:c r="F8" s="25"/>
-      <x:c r="G8" s="25"/>
+      <x:c r="B8" s="16" t="s">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="C8" s="16"/>
+      <x:c r="D8" s="16"/>
+      <x:c r="E8" s="16"/>
+      <x:c r="F8" s="16"/>
+      <x:c r="G8" s="16"/>
     </x:row>
     <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A9" s="15"/>
@@ -1949,10 +1988,10 @@
     </x:row>
     <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A10" s="14" t="s">
-        <x:v>40</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>38</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="C10" s="9"/>
       <x:c r="D10" s="9"/>
@@ -1963,10 +2002,10 @@
     <x:row r="11" spans="1:7" ht="120" customHeight="1">
       <x:c r="A11" s="15"/>
       <x:c r="B11" s="1" t="s">
-        <x:v>34</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C11" s="9" t="s">
-        <x:v>47</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="D11" s="9"/>
       <x:c r="E11" s="9"/>
@@ -1976,7 +2015,7 @@
     <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A12" s="15"/>
       <x:c r="B12" s="1" t="s">
-        <x:v>36</x:v>
+        <x:v>58</x:v>
       </x:c>
       <x:c r="C12" s="9"/>
       <x:c r="D12" s="9"/>
@@ -1986,28 +2025,30 @@
     </x:row>
     <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A13" s="17" t="s">
-        <x:v>44</x:v>
+        <x:v>69</x:v>
       </x:c>
       <x:c r="B13" s="15" t="s">
-        <x:v>41</x:v>
+        <x:v>56</x:v>
       </x:c>
       <x:c r="C13" s="15"/>
       <x:c r="D13" s="15" t="s">
-        <x:v>30</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="E13" s="15"/>
       <x:c r="F13" s="15" t="s">
-        <x:v>32</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="G13" s="15"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A14" s="18"/>
       <x:c r="B14" s="9" t="s">
-        <x:v>35</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C14" s="9"/>
-      <x:c r="D14" s="9"/>
+      <x:c r="D14" s="9" t="s">
+        <x:v>86</x:v>
+      </x:c>
       <x:c r="E14" s="9"/>
       <x:c r="F14" s="9"/>
       <x:c r="G14" s="9"/>
@@ -2024,10 +2065,12 @@
     <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A16" s="18"/>
       <x:c r="B16" s="9" t="s">
-        <x:v>42</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="C16" s="9"/>
-      <x:c r="D16" s="9"/>
+      <x:c r="D16" s="9" t="s">
+        <x:v>85</x:v>
+      </x:c>
       <x:c r="E16" s="9"/>
       <x:c r="F16" s="9"/>
       <x:c r="G16" s="9"/>
@@ -2041,13 +2084,15 @@
       <x:c r="F17" s="9"/>
       <x:c r="G17" s="9"/>
     </x:row>
-    <x:row r="18" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+    <x:row r="18" spans="1:7" ht="55.79999999999999715783" customHeight="1">
       <x:c r="A18" s="18"/>
       <x:c r="B18" s="9" t="s">
-        <x:v>46</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="C18" s="9"/>
-      <x:c r="D18" s="9"/>
+      <x:c r="D18" s="21" t="s">
+        <x:v>1</x:v>
+      </x:c>
       <x:c r="E18" s="9"/>
       <x:c r="F18" s="9"/>
       <x:c r="G18" s="9"/>
@@ -2061,13 +2106,15 @@
       <x:c r="F19" s="9"/>
       <x:c r="G19" s="9"/>
     </x:row>
-    <x:row r="20" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+    <x:row r="20" spans="1:7" ht="51.60000000000000142109" customHeight="1">
       <x:c r="A20" s="18"/>
       <x:c r="B20" s="22" t="s">
-        <x:v>51</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="C20" s="23"/>
-      <x:c r="D20" s="22"/>
+      <x:c r="D20" s="25" t="s">
+        <x:v>84</x:v>
+      </x:c>
       <x:c r="E20" s="23"/>
       <x:c r="F20" s="22"/>
       <x:c r="G20" s="23"/>
@@ -2083,9 +2130,13 @@
     </x:row>
     <x:row r="22" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A22" s="18"/>
-      <x:c r="B22" s="22"/>
+      <x:c r="B22" s="22" t="s">
+        <x:v>0</x:v>
+      </x:c>
       <x:c r="C22" s="23"/>
-      <x:c r="D22" s="22"/>
+      <x:c r="D22" s="22" t="s">
+        <x:v>82</x:v>
+      </x:c>
       <x:c r="E22" s="23"/>
       <x:c r="F22" s="22"/>
       <x:c r="G22" s="23"/>
@@ -2119,10 +2170,10 @@
     </x:row>
     <x:row r="26" spans="1:7" ht="239.40000000000000568434" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>39</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="B26" s="24" t="s">
-        <x:v>70</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="C26" s="24"/>
       <x:c r="D26" s="24"/>
@@ -2217,10 +2268,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="B4:F23"/>
+  <x:dimension ref="B4:H22"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A6" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="C12" activeCellId="0" sqref="C12:C12"/>
+    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="G5" activeCellId="0" sqref="G5:G5"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -2228,149 +2279,157 @@
     <x:col min="2" max="2" width="55.125" customWidth="1"/>
     <x:col min="3" max="3" width="35.30859375" style="4" bestFit="1" customWidth="1"/>
     <x:col min="5" max="5" width="36.625" customWidth="1"/>
+    <x:col min="7" max="7" width="46" customWidth="1"/>
+    <x:col min="8" max="8" width="35" customWidth="1"/>
   </x:cols>
   <x:sheetData>
-    <x:row r="4" spans="2:6">
+    <x:row r="4" spans="2:7">
       <x:c r="B4" t="s">
-        <x:v>17</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>35</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>37</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
         <x:v>71</x:v>
       </x:c>
-    </x:row>
-    <x:row r="5" spans="2:6">
+      <x:c r="G4" t="s">
+        <x:v>81</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="2:8" ht="318" customHeight="1">
       <x:c r="B5" s="4" t="s">
-        <x:v>33</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>58</x:v>
+        <x:v>43</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>0</x:v>
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="G5" s="26" t="s">
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="H5" s="26" t="s">
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:6">
       <x:c r="B6" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="F6" t="s">
-        <x:v>75</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:6">
       <x:c r="B7" s="4"/>
       <x:c r="F7" t="s">
-        <x:v>76</x:v>
+        <x:v>53</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:6">
       <x:c r="B8" s="4" t="s">
-        <x:v>2</x:v>
+        <x:v>18</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>29</x:v>
+        <x:v>60</x:v>
       </x:c>
       <x:c r="F8" t="s">
-        <x:v>74</x:v>
+        <x:v>51</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="65.5">
       <x:c r="B9" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>64</x:v>
+        <x:v>6</x:v>
       </x:c>
       <x:c r="D9" t="s">
         <x:v>13</x:v>
       </x:c>
       <x:c r="E9" s="4" t="s">
-        <x:v>55</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="10" spans="2:3" ht="98.25">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="2:3" ht="81.84999999999999431566">
       <x:c r="B10" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>1</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="11" spans="2:3">
+        <x:v>4</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="2:4" ht="81.84999999999999431566">
       <x:c r="B11" s="4" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="C11" s="5" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="C11" s="6" t="s">
         <x:v>26</x:v>
       </x:c>
-    </x:row>
-    <x:row r="12" spans="2:3" customFormat="1" ht="65.5">
-      <x:c r="B12" s="4"/>
-      <x:c r="C12" s="6" t="s">
-        <x:v>54</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="13" spans="2:3" ht="114.59999999999999431566">
-      <x:c r="B13" s="4" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C13" s="4" t="s">
+      <x:c r="D11" s="5" t="s">
+        <x:v>40</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="2:3" ht="98.25">
+      <x:c r="B12" s="4" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="C12" s="4" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="2:2">
+      <x:c r="B13" s="4"/>
+    </x:row>
+    <x:row r="14" spans="2:2" ht="32.75">
+      <x:c r="B14" s="4" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="2:2">
+      <x:c r="B15" s="4" t="s">
+        <x:v>17</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="2:2" ht="32.75">
+      <x:c r="B16" s="4" t="s">
+        <x:v>12</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="2:2">
+      <x:c r="B17" s="4" t="s">
+        <x:v>46</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="2:2" ht="49.14999999999999857891">
+      <x:c r="B18" s="4" t="s">
         <x:v>11</x:v>
       </x:c>
     </x:row>
-    <x:row r="14" spans="2:2">
-      <x:c r="B14" s="4"/>
-    </x:row>
-    <x:row r="15" spans="2:2" ht="32.75">
-      <x:c r="B15" s="4" t="s">
-        <x:v>63</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="16" spans="2:2">
-      <x:c r="B16" s="4" t="s">
-        <x:v>10</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="17" spans="2:2" ht="32.75">
-      <x:c r="B17" s="4" t="s">
-        <x:v>12</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="18" spans="2:2">
-      <x:c r="B18" s="4" t="s">
-        <x:v>50</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="19" spans="2:2" ht="49.14999999999999857891">
+    <x:row r="19" spans="2:2">
       <x:c r="B19" s="4" t="s">
-        <x:v>62</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:2">
       <x:c r="B20" s="4" t="s">
-        <x:v>60</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="21" spans="2:2">
-      <x:c r="B21" s="4" t="s">
-        <x:v>59</x:v>
-      </x:c>
-    </x:row>
-    <x:row r="23" spans="2:2">
-      <x:c r="B23" s="3" t="s">
-        <x:v>27</x:v>
+        <x:v>42</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="2:2">
+      <x:c r="B22" s="3" t="s">
+        <x:v>39</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
   <x:hyperlinks>
-    <x:hyperlink ref="B23:B23" r:id="rId1"/>
-    <x:hyperlink ref="C11:C11" r:id="rId2"/>
+    <x:hyperlink ref="B22:B22" r:id="rId1"/>
+    <x:hyperlink ref="D11:D11" r:id="rId2"/>
   </x:hyperlinks>
   <x:pageMargins left="0.74805557727813720703" right="0.74805557727813720703" top="0.98430556058883666992" bottom="0.98430556058883666992" header="0.51138889789581298828" footer="0.51138889789581298828"/>
   <x:pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="0" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="0" verticalDpi="0" copies="1"/>

--- a/00 포트폴리오/포트폴리오기획서-정재녕(앵글340)-2.xlsx
+++ b/00 포트폴리오/포트폴리오기획서-정재녕(앵글340)-2.xlsx
@@ -21,257 +21,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="87">
-  <x:si>
-    <x:t>VISIT</x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+  <x:si>
+    <x:t xml:space="preserve">웹페이지를 통한 브랜드 아이덴티티를 부각하고 이미지 선호도를 향상시킨다.
+리디자인을 통해 사용자 친화적이고 접근성이 높은 플랫폼으로 거듭날 수 있도록 구현한다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>을지로 - 낡은 간판, 세월이 스며든 골목길, 공구상점의 요소들을 현대적인 감각으로 반영, 거친 질감의 벽면, 노출 콘크리트 다채로운 컬러의 빈티지 체어 &amp; 조명, 창문을 통해 들어오는 자연광 -&gt; 하나의 전시공간</x:t>
   </x:si>
   <x:si>
     <x:t>카페 인테리어, 분위기, 창가자리, 자연광 포인트 소개
 (공간별 사진 슬라이드 및 줌인아웃 효과 + 사진별 간단한 설명 추가)</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">웹페이지를 통한 브랜드 아이덴티티를 부각하고 이미지 선호도를 향상시킨다.
-리디자인을 통해 사용자 친화적이고 접근성이 높은 플랫폼으로 거듭날 수 있도록 구현한다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>■ 개인 카페 인스타그램 홍보의 한계점,  홈페이지 홍보를 활용해야하는 이유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>을지로 - 낡은 간판, 세월이 스며든 골목길, 공구상점의 요소들을 현대적인 감각으로 반영, 거친 질감의 벽면, 노출 콘크리트 다채로운 컬러의 빈티지 체어 &amp; 조명, 창문을 통해 들어오는 자연광 -&gt; 하나의 전시공간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>콜렉팅한 그림 작품과 세련된 그림이 어우러져 마치 갤러리에 온 듯한 분위기의 카페, 커피를 마시고 대화를 나누거나 사색을 나누기에 넓고 편한공간 벽면에 걸린 감각적인 포스터와 창밖으로 보이는 도심풍경이 어우러지면서 감각적인 경험 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시적 감성 카페, 외벽 아트워크, 빈티지한 분위기 &amp; 거칠면서도 감각적인 인테리어를 반영한 페이지구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://www.bosa.co.kr/news/articleView.html?idxno=2222508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=90094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조용하지만 감각적인 느낌의 까페를 찾고 싶어하는 고객 , 을지로의 힙한 감성 카페 타이틀 홍보, 나만 알고 싶은 을지로 핫플레이스로의 이미지 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1. 웹사이트를 방문하는 사용자에게 브랜드 아이덴티티 강조
-2. 네비게이션 메뉴를 구현하여 사용자에게 가독성있고 정돈된 정보를 전달 
-3. "도심 속 숨겨진 감성 갤러리 카페" 를 컨셉으로 방문 전부터 공간의 무드와 감성을 체험할 수 있게 전달  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>해시태그 검색 -&gt; 노출의 한계점 -&gt; 홈페이지 검색 엔진 최적화(SEO)를 통해 포털사이트의 검색확률을 높이고 지속적인 방문자 유입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영업시간, 메뉴, 이벤트 등 중요한 정보들을 찾기위한 고객의  불필요한 시간낭비 줄이기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://blog.naver.com/reading_mindset/223827060245</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.dessert39.com/main.php</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디 철학/연혁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 정보의 한계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웹사이트 이미지 반영</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앵글340 크림라떼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABOUT US</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기획의도(목적)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포트폴리오 기획서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRODUCTS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MY INBODY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.감각적인 인테리어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독창적인 가구 및 오브제, 햇살 가득한 창가자리 -&gt; 따뜻한 나무질감의 바닥, 거친 콘크리트 벽의 조화 및 커다란 화분의 도심속 작은 정원을 연상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의료분야가 치료 중심에서 예방‧관리 중심으로 패러다임이 변화 -&gt; 건강관리에 있어 ‘체성분 분석기기’ 의 중요성이 더 강화 전망
-디지털 헬스케어, 의료시스템, 정밀의료 기술 등의 발전 및 만성질환 관리 강화의 중요성이 대두 -&gt; 질병 치료 중심에서 사전 진단, 예방을 비롯한 맞춤형 건강관리 서비스가 주목받고 있는 추세
-현재 인바디 웹사이트는 전문가용 기기 중심의 정보와 이미지가 주 -&gt;  전문적이나 거리감, 경직된 느낌 전달 
-청년층과 중장년층을 주요 타겟으로 설정 -&gt; 건강관리 관심도 증가에 발맞춰, 연령대별 맞춤 콘텐츠 및 UX 제공, 쉽게 접근할 수 있게 구성
-개인용 제품이 전문가용 기기에 비해 상대적으로 매출이 낮은 원인을 고려 -&gt;  소비자들이 가정에서도 손쉽고 편리하게 사용할 수 있는 제품이라는 점을 직관적으로 인식할 수 있도록 웹페이지의 콘텐츠 구성과 디자인을 개선
-청년층에겐 나에게 맞는 건강 관리 같은 서비스 구성, 중장년층에겐 사전 진단, 질병 예방 -&gt; 연령별 맞춤 콘텐츠 구성
-웹사이트 전체의 레이아웃과 시각적 요소를 안정적이고 신뢰감 있는 브랜드 이미지를 전달할 수 있도록 리디자인 -&gt; 사용자 진입 후 개인용 제품 탐색 비율 증가를 목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 아늑한 분위기,  감각적인 빈티지 인테리어, 커피와 음악을 함께 하기 좋은 장소라는 컨셉 구축(커피+음악+공간을 같이 즐기는 컨셉)
- </x:t>
-  </x:si>
-  <x:si>
     <x:t>https://www.enewstoday.co.kr/news/articleView.html?idxno=2153878#:~:text=%ED%95%9C%EA%B5%ADIR%ED%98%91%EC%9D%98%ED%9A%8C%20%EA%B8%B0%EC%97%85%EB%A6%AC%EC%84%9C%EC%B9%98%EC%84%BC%ED%84%B0%EB%8A%94%20%EB%A6%AC%EC%8A%A4%ED%81%AC%20%EC%9A%94%EC%9D%B8%EC%9C%BC%EB%A1%9C%20'%EC%84%B1%EC%9E%A5%EC%84%B1%20%EB%91%94%ED%99%94%EC%97%90%20%EB%8C%80%ED%95%9C,%EC%9A%B0%EB%A0%A4%EA%B0%80%20%EC%9E%88%EC%9C%BC%EB%A9%B0%2C%20%EC%9D%B4%EB%A1%9C%20%EC%9D%B8%ED%95%B4%20%EC%97%85%EA%B3%84%201%EC%9C%84%20%EA%B8%B0%EC%97%85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과정명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정재녕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bwissue.com/cafeinfo/1856703</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://collabospace.kr/space/angle340/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나에게 맞는 건강관리 여행 시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">카페의 정체성을 명확히 보여주고 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>시그니쳐 디저트 메뉴 UI 화</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3. 브랜딩과 신뢰도의 문제 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>인플루언서와 같이하는 건강체크</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 검색 노출의 한계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BI소개/브랜드 파워 소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 모양 쿠키 일러화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디란? 인바디 용어 해설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.조용하고 아늑한 느낌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베이글라떼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABOUT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바다라떼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Section</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MENU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HOME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Footer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인화면
-구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>톤앤매너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 디저트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 의견</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참고 사이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참고
-사이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청계천라떼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴구축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앵글340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://coffee9.co.kr/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 갤러리에 온듯 한 분위기의 카페</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맞춤 건강 솔루션/사전 진단, 질병예방</x:t>
-  </x:si>
-  <x:si>
-    <x:t>3.다양한 오리지널 빈티지 조명 및 인테리어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원두보관함,철제선반,조명 빈티지 가스레인지&amp;오븐 등등(오븐은 지금 수납공갑으로 쓰고 있답니다😳) 곳곳에 다양하게 인테리어 했습니다. 아 참!저희는 메뉴판도 스틸이랍니다!
-저희 앵글340은 을지로의 빈티지한 감성을 그대로 살린 거친 벽면과 을지로 특색을 살리고 싶어서 스틸을 전체적으로 사용하여 통일감을 주었습니다.
-전체적인 매장의 인테리어컨셉은 미드센츄리 모던 스타일로 꾸며 보았습니다 .빈티지한 감성을 그대로 살려 매장의 모든 가구와 조명들은 전부 오리지널 제품들로 꾸며져있습니다.
-저희 카페 앵글 340에서
-커피와 함께 공간도 같이 즐겨주세요.</x:t>
   </x:si>
   <x:si>
     <x:t>1. Blend
@@ -288,36 +51,276 @@
 초콜릿과 카라멜의 고소함과 사과의 상큼함이 밸런스있고 부드러운 디카페인 원두입니다.</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">GALLERY </x:t>
-  </x:si>
-  <x:si>
-    <x:t>SPACE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원두소개</x:t>
+    <x:t>콜렉팅한 그림 작품과 세련된 그림이 어우러져 마치 갤러리에 온 듯한 분위기의 카페, 커피를 마시고 대화를 나누거나 사색을 나누기에 넓고 편한공간 벽면에 걸린 감각적인 포스터와 창밖으로 보이는 도심풍경이 어우러지면서 감각적인 경험 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=90094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시적 감성 카페, 외벽 아트워크, 빈티지한 분위기 &amp; 거칠면서도 감각적인 인테리어를 반영한 페이지구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.bosa.co.kr/news/articleView.html?idxno=2222508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>■ 개인 카페 인스타그램 홍보의 한계점,  홈페이지 홍보를 활용해야하는 이유</x:t>
   </x:si>
   <x:si>
     <x:t>지도, 운영시간, 전화번호를 제공해서 방문자가 쉽게 찾아올 수 있게 제공</x:t>
   </x:si>
   <x:si>
-    <x:t>BI소개</x:t>
+    <x:t xml:space="preserve"> 아늑한 분위기,  감각적인 빈티지 인테리어, 커피와 음악을 함께 하기 좋은 장소라는 컨셉 구축(커피+음악+공간을 같이 즐기는 컨셉)
+ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>해시태그 검색 -&gt; 노출의 한계점 -&gt; 홈페이지 검색 엔진 최적화(SEO)를 통해 포털사이트의 검색확률을 높이고 지속적인 방문자 유입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>독창적인 가구 및 오브제, 햇살 가득한 창가자리 -&gt; 따뜻한 나무질감의 바닥, 거친 콘크리트 벽의 조화 및 커다란 화분의 도심속 작은 정원을 연상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조용하지만 감각적인 느낌의 까페를 찾고 싶어하는 고객 , 을지로의 힙한 감성 카페 타이틀 홍보, 나만 알고 싶은 을지로 핫플레이스로의 이미지 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://blog.naver.com/reading_mindset/223827060245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영업시간, 메뉴, 이벤트 등 중요한 정보들을 찾기위한 고객의  불필요한 시간낭비 줄이기</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.dessert39.com/main.php</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나에게 맞는 건강관리 여행 시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시그니쳐 디저트 메뉴 UI 화</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3. 브랜딩과 신뢰도의 문제 </x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">카페의 정체성을 명확히 보여주고 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>인플루언서와 같이하는 건강체크</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원두보관함,철제선반,조명 빈티지 가스레인지&amp;오븐 등등(오븐은 지금 수납공갑으로 쓰고 있답니다😳) 곳곳에 다양하게 인테리어 했습니다. 아 참!저희는 메뉴판도 스틸이랍니다!
+저희 앵글340은 을지로의 빈티지한 감성을 그대로 살린 거친 벽면과 을지로 특색을 살리고 싶어서 스틸을 전체적으로 사용하여 통일감을 주었습니다.
+전체적인 매장의 인테리어컨셉은 미드센츄리 모던 스타일로 꾸며 보았습니다 .빈티지한 감성을 그대로 살려 매장의 모든 가구와 조명들은 전부 오리지널 제품들로 꾸며져있습니다.
+저희 카페 앵글 340에서
+커피와 함께 공간도 같이 즐겨주세요.</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1. 웹사이트를 방문하는 사용자에게 브랜드 아이덴티티 강조
+2. 네비게이션 메뉴를 구현하여 사용자에게 가독성있고 정돈된 정보를 전달 
+3. "도심 속 숨겨진 감성 갤러리 카페" 를 컨셉으로 방문 전부터 공간의 무드와 감성을 체험할 수 있게 전달  </x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">카페에 전시된 그림, 포스터, 오브제 체험
 (사진 슬라이드 및 줌인아웃 효과 + 사진별 간단한 설명 추가) </x:t>
   </x:si>
   <x:si>
+    <x:t>인바디 철학/연혁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRODUCTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MY INBODY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.감각적인 인테리어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABOUT US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 정보의 한계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기획의도(목적)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앵글340 크림라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포트폴리오 기획서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹사이트 이미지 반영</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GALLERY </x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://collabospace.kr/space/angle340/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bwissue.com/cafeinfo/1856703</x:t>
+  </x:si>
+  <x:si>
     <x:t>카드형 메뉴 소개 레이아웃(클릭 시 호버 기능으로 상세 확인 기능)</x:t>
   </x:si>
   <x:si>
+    <x:t>1.조용하고 아늑한 느낌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디란? 인바디 용어 해설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BI소개/브랜드 파워 소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 모양 쿠키 일러화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 검색 노출의 한계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과정명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정재녕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의료분야가 치료 중심에서 예방‧관리 중심으로 패러다임이 변화 -&gt; 건강관리에 있어 ‘체성분 분석기기’ 의 중요성이 더 강화 전망
+디지털 헬스케어, 의료시스템, 정밀의료 기술 등의 발전 및 만성질환 관리 강화의 중요성이 대두 -&gt; 질병 치료 중심에서 사전 진단, 예방을 비롯한 맞춤형 건강관리 서비스가 주목받고 있는 추세
+현재 인바디 웹사이트는 전문가용 기기 중심의 정보와 이미지가 주 -&gt;  전문적이나 거리감, 경직된 느낌 전달 
+청년층과 중장년층을 주요 타겟으로 설정 -&gt; 건강관리 관심도 증가에 발맞춰, 연령대별 맞춤 콘텐츠 및 UX 제공, 쉽게 접근할 수 있게 구성
+개인용 제품이 전문가용 기기에 비해 상대적으로 매출이 낮은 원인을 고려 -&gt;  소비자들이 가정에서도 손쉽고 편리하게 사용할 수 있는 제품이라는 점을 직관적으로 인식할 수 있도록 웹페이지의 콘텐츠 구성과 디자인을 개선
+청년층에겐 나에게 맞는 건강 관리 같은 서비스 구성, 중장년층에겐 사전 진단, 질병 예방 -&gt; 연령별 맞춤 콘텐츠 구성
+웹사이트 전체의 레이아웃과 시각적 요소를 안정적이고 신뢰감 있는 브랜드 이미지를 전달할 수 있도록 리디자인 -&gt; 사용자 진입 후 개인용 제품 탐색 비율 증가를 목표</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VISIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPACE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원두소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>톤앤매너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Footer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바다라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 의견</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Section</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참고
+사이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참고 사이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베이글라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MENU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앵글340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인화면
+구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABOUT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 디저트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청계천라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴구축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BI소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 갤러리에 온듯 한 분위기의 카페</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://coffee9.co.kr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맞춤 건강 솔루션/사전 진단, 질병예방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.다양한 오리지널 빈티지 조명 및 인테리어</x:t>
+  </x:si>
+  <x:si>
     <x:t>전체적인 내부 전경 이미지와 카페 분위기 설명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cmlandco.kr/</x:t>
   </x:si>
 </x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <x:styleSheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <x:fonts count="12">
+  <x:fonts count="13">
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="11"/>
@@ -425,6 +428,31 @@
           <x:sz val="9"/>
           <x:color rgb="ff000000"/>
           <x:b val="1"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
+          <hs:underlineType val="1"/>
+          <hs:underlineShape val="solid"/>
+          <hs:underlineColor rgb="ff0000ff"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff0000ff"/>
+          <x:u/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
@@ -551,7 +579,7 @@
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
   </x:cellStyleXfs>
-  <x:cellXfs count="27">
+  <x:cellXfs count="28">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1">
       <x:alignment horizontal="general" vertical="center"/>
     </x:xf>
@@ -583,6 +611,9 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
@@ -754,24 +785,24 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center" wrapText="1"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <x:alignment horizontal="general" vertical="center" wrapText="1"/>
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
@@ -783,6 +814,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -865,6 +897,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -899,6 +932,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -943,6 +977,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -986,6 +1021,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1070,6 +1106,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1090,6 +1127,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1120,6 +1158,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1481,304 +1520,304 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="39.95000000000000284217" customHeight="1">
-      <x:c r="A1" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B1" s="7"/>
-      <x:c r="C1" s="7"/>
-      <x:c r="D1" s="7"/>
-      <x:c r="E1" s="7"/>
-      <x:c r="F1" s="7"/>
-      <x:c r="G1" s="7"/>
+      <x:c r="A1" s="8" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B1" s="8"/>
+      <x:c r="C1" s="8"/>
+      <x:c r="D1" s="8"/>
+      <x:c r="E1" s="8"/>
+      <x:c r="F1" s="8"/>
+      <x:c r="G1" s="8"/>
     </x:row>
     <x:row r="2" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="3" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B3" s="8" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="8"/>
-      <x:c r="D3" s="8"/>
-      <x:c r="E3" s="8"/>
-      <x:c r="F3" s="8"/>
-      <x:c r="G3" s="8"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B3" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C3" s="9"/>
+      <x:c r="D3" s="9"/>
+      <x:c r="E3" s="9"/>
+      <x:c r="F3" s="9"/>
+      <x:c r="G3" s="9"/>
     </x:row>
     <x:row r="4" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B4" s="9" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C4" s="9"/>
-      <x:c r="D4" s="9"/>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B4" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C4" s="10"/>
+      <x:c r="D4" s="10"/>
       <x:c r="E4" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F4" s="10">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F4" s="11">
         <x:v>45765</x:v>
       </x:c>
-      <x:c r="G4" s="9"/>
+      <x:c r="G4" s="10"/>
     </x:row>
     <x:row r="5" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A5" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B5" s="8" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C5" s="8"/>
-      <x:c r="D5" s="8"/>
-      <x:c r="E5" s="8"/>
-      <x:c r="F5" s="8"/>
-      <x:c r="G5" s="8"/>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B5" s="9" t="s">
+        <x:v>50</x:v>
+      </x:c>
+      <x:c r="C5" s="9"/>
+      <x:c r="D5" s="9"/>
+      <x:c r="E5" s="9"/>
+      <x:c r="F5" s="9"/>
+      <x:c r="G5" s="9"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="61.79999999999999715783" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B6" s="11" t="s">
-        <x:v>2</x:v>
-      </x:c>
-      <x:c r="C6" s="12"/>
-      <x:c r="D6" s="12"/>
-      <x:c r="E6" s="12"/>
-      <x:c r="F6" s="12"/>
-      <x:c r="G6" s="13"/>
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B6" s="12" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="C6" s="13"/>
+      <x:c r="D6" s="13"/>
+      <x:c r="E6" s="13"/>
+      <x:c r="F6" s="13"/>
+      <x:c r="G6" s="14"/>
     </x:row>
     <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A7" s="14" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B7" s="16" t="s">
-        <x:v>7</x:v>
-      </x:c>
-      <x:c r="C7" s="16"/>
-      <x:c r="D7" s="16"/>
-      <x:c r="E7" s="16"/>
-      <x:c r="F7" s="16"/>
-      <x:c r="G7" s="16"/>
+      <x:c r="A7" s="15" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B7" s="17" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C7" s="17"/>
+      <x:c r="D7" s="17"/>
+      <x:c r="E7" s="17"/>
+      <x:c r="F7" s="17"/>
+      <x:c r="G7" s="17"/>
     </x:row>
     <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A8" s="15"/>
-      <x:c r="B8" s="16" t="s">
+      <x:c r="A8" s="16"/>
+      <x:c r="B8" s="17" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="17"/>
+      <x:c r="D8" s="17"/>
+      <x:c r="E8" s="17"/>
+      <x:c r="F8" s="17"/>
+      <x:c r="G8" s="17"/>
+    </x:row>
+    <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A9" s="16"/>
+      <x:c r="B9" s="17" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="C9" s="17"/>
+      <x:c r="D9" s="17"/>
+      <x:c r="E9" s="17"/>
+      <x:c r="F9" s="17"/>
+      <x:c r="G9" s="17"/>
+    </x:row>
+    <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
+      <x:c r="A10" s="15" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C10" s="10"/>
+      <x:c r="D10" s="10"/>
+      <x:c r="E10" s="10"/>
+      <x:c r="F10" s="10"/>
+      <x:c r="G10" s="10"/>
+    </x:row>
+    <x:row r="11" spans="1:7" ht="120" customHeight="1">
+      <x:c r="A11" s="16"/>
+      <x:c r="B11" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C11" s="10" t="s">
+        <x:v>43</x:v>
+      </x:c>
+      <x:c r="D11" s="10"/>
+      <x:c r="E11" s="10"/>
+      <x:c r="F11" s="10"/>
+      <x:c r="G11" s="10"/>
+    </x:row>
+    <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
+      <x:c r="A12" s="16"/>
+      <x:c r="B12" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C12" s="10"/>
+      <x:c r="D12" s="10"/>
+      <x:c r="E12" s="10"/>
+      <x:c r="F12" s="10"/>
+      <x:c r="G12" s="10"/>
+    </x:row>
+    <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A13" s="18" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B13" s="16" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C13" s="16"/>
+      <x:c r="D13" s="16" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E13" s="16"/>
+      <x:c r="F13" s="16" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G13" s="16"/>
+    </x:row>
+    <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A14" s="19"/>
+      <x:c r="B14" s="10" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C14" s="10"/>
+      <x:c r="D14" s="10"/>
+      <x:c r="E14" s="10"/>
+      <x:c r="F14" s="10"/>
+      <x:c r="G14" s="10"/>
+    </x:row>
+    <x:row r="15" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A15" s="18"/>
+      <x:c r="B15" s="20"/>
+      <x:c r="C15" s="21"/>
+      <x:c r="D15" s="20"/>
+      <x:c r="E15" s="21"/>
+      <x:c r="F15" s="20"/>
+      <x:c r="G15" s="21"/>
+    </x:row>
+    <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A16" s="19"/>
+      <x:c r="B16" s="10" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="C16" s="10"/>
+      <x:c r="D16" s="10" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="E16" s="10"/>
+      <x:c r="F16" s="10"/>
+      <x:c r="G16" s="10"/>
+    </x:row>
+    <x:row r="17" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A17" s="19"/>
+      <x:c r="B17" s="10"/>
+      <x:c r="C17" s="10"/>
+      <x:c r="D17" s="10" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="E17" s="10"/>
+      <x:c r="F17" s="10"/>
+      <x:c r="G17" s="10"/>
+    </x:row>
+    <x:row r="18" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A18" s="19"/>
+      <x:c r="B18" s="10"/>
+      <x:c r="C18" s="10"/>
+      <x:c r="D18" s="10"/>
+      <x:c r="E18" s="10"/>
+      <x:c r="F18" s="10"/>
+      <x:c r="G18" s="10"/>
+    </x:row>
+    <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A19" s="19"/>
+      <x:c r="B19" s="10" t="s">
         <x:v>29</x:v>
       </x:c>
-      <x:c r="C8" s="16"/>
-      <x:c r="D8" s="16"/>
-      <x:c r="E8" s="16"/>
-      <x:c r="F8" s="16"/>
-      <x:c r="G8" s="16"/>
-    </x:row>
-    <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A9" s="15"/>
-      <x:c r="B9" s="16" t="s">
-        <x:v>8</x:v>
-      </x:c>
-      <x:c r="C9" s="16"/>
-      <x:c r="D9" s="16"/>
-      <x:c r="E9" s="16"/>
-      <x:c r="F9" s="16"/>
-      <x:c r="G9" s="16"/>
-    </x:row>
-    <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
-      <x:c r="A10" s="14" t="s">
+      <x:c r="C19" s="10"/>
+      <x:c r="D19" s="22" t="s">
+        <x:v>84</x:v>
+      </x:c>
+      <x:c r="E19" s="10"/>
+      <x:c r="F19" s="10"/>
+      <x:c r="G19" s="10"/>
+    </x:row>
+    <x:row r="20" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A20" s="19"/>
+      <x:c r="B20" s="10"/>
+      <x:c r="C20" s="10"/>
+      <x:c r="D20" s="23" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E20" s="24"/>
+      <x:c r="F20" s="23"/>
+      <x:c r="G20" s="24"/>
+    </x:row>
+    <x:row r="21" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A21" s="18"/>
+      <x:c r="B21" s="20"/>
+      <x:c r="C21" s="21"/>
+      <x:c r="D21" s="20"/>
+      <x:c r="E21" s="21"/>
+      <x:c r="F21" s="20"/>
+      <x:c r="G21" s="21"/>
+    </x:row>
+    <x:row r="22" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A22" s="19"/>
+      <x:c r="B22" s="23"/>
+      <x:c r="C22" s="24"/>
+      <x:c r="D22" s="23" t="s">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="E22" s="24"/>
+      <x:c r="F22" s="23"/>
+      <x:c r="G22" s="24"/>
+    </x:row>
+    <x:row r="23" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A23" s="19"/>
+      <x:c r="B23" s="23"/>
+      <x:c r="C23" s="24"/>
+      <x:c r="D23" s="23" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="E23" s="24"/>
+      <x:c r="F23" s="23"/>
+      <x:c r="G23" s="24"/>
+    </x:row>
+    <x:row r="24" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A24" s="18"/>
+      <x:c r="B24" s="20"/>
+      <x:c r="C24" s="21"/>
+      <x:c r="D24" s="20"/>
+      <x:c r="E24" s="21"/>
+      <x:c r="F24" s="20"/>
+      <x:c r="G24" s="21"/>
+    </x:row>
+    <x:row r="25" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A25" s="19"/>
+      <x:c r="B25" s="20" t="s">
         <x:v>59</x:v>
       </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C10" s="9"/>
-      <x:c r="D10" s="9"/>
-      <x:c r="E10" s="9"/>
-      <x:c r="F10" s="9"/>
-      <x:c r="G10" s="9"/>
-    </x:row>
-    <x:row r="11" spans="1:7" ht="120" customHeight="1">
-      <x:c r="A11" s="15"/>
-      <x:c r="B11" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C11" s="9" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="D11" s="9"/>
-      <x:c r="E11" s="9"/>
-      <x:c r="F11" s="9"/>
-      <x:c r="G11" s="9"/>
-    </x:row>
-    <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
-      <x:c r="A12" s="15"/>
-      <x:c r="B12" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C12" s="9"/>
-      <x:c r="D12" s="9"/>
-      <x:c r="E12" s="9"/>
-      <x:c r="F12" s="9"/>
-      <x:c r="G12" s="9"/>
-    </x:row>
-    <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A13" s="17" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="B13" s="15" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C13" s="15"/>
-      <x:c r="D13" s="15" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E13" s="15"/>
-      <x:c r="F13" s="15" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G13" s="15"/>
-    </x:row>
-    <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A14" s="18"/>
-      <x:c r="B14" s="9" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="C14" s="9"/>
-      <x:c r="D14" s="9"/>
-      <x:c r="E14" s="9"/>
-      <x:c r="F14" s="9"/>
-      <x:c r="G14" s="9"/>
-    </x:row>
-    <x:row r="15" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A15" s="17"/>
-      <x:c r="B15" s="19"/>
-      <x:c r="C15" s="20"/>
-      <x:c r="D15" s="19"/>
-      <x:c r="E15" s="20"/>
-      <x:c r="F15" s="19"/>
-      <x:c r="G15" s="20"/>
-    </x:row>
-    <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A16" s="18"/>
-      <x:c r="B16" s="9" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="C16" s="9"/>
-      <x:c r="D16" s="9" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="E16" s="9"/>
-      <x:c r="F16" s="9"/>
-      <x:c r="G16" s="9"/>
-    </x:row>
-    <x:row r="17" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A17" s="18"/>
-      <x:c r="B17" s="9"/>
-      <x:c r="C17" s="9"/>
-      <x:c r="D17" s="9" t="s">
-        <x:v>34</x:v>
-      </x:c>
-      <x:c r="E17" s="9"/>
-      <x:c r="F17" s="9"/>
-      <x:c r="G17" s="9"/>
-    </x:row>
-    <x:row r="18" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A18" s="18"/>
-      <x:c r="B18" s="9"/>
-      <x:c r="C18" s="9"/>
-      <x:c r="D18" s="9"/>
-      <x:c r="E18" s="9"/>
-      <x:c r="F18" s="9"/>
-      <x:c r="G18" s="9"/>
-    </x:row>
-    <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A19" s="18"/>
-      <x:c r="B19" s="9" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C19" s="9"/>
-      <x:c r="D19" s="21" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E19" s="9"/>
-      <x:c r="F19" s="9"/>
-      <x:c r="G19" s="9"/>
-    </x:row>
-    <x:row r="20" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A20" s="18"/>
-      <x:c r="B20" s="9"/>
-      <x:c r="C20" s="9"/>
-      <x:c r="D20" s="22" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="E20" s="23"/>
-      <x:c r="F20" s="22"/>
-      <x:c r="G20" s="23"/>
-    </x:row>
-    <x:row r="21" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A21" s="17"/>
-      <x:c r="B21" s="19"/>
-      <x:c r="C21" s="20"/>
-      <x:c r="D21" s="19"/>
-      <x:c r="E21" s="20"/>
-      <x:c r="F21" s="19"/>
-      <x:c r="G21" s="20"/>
-    </x:row>
-    <x:row r="22" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A22" s="18"/>
-      <x:c r="B22" s="22"/>
-      <x:c r="C22" s="23"/>
-      <x:c r="D22" s="22" t="s">
-        <x:v>49</x:v>
-      </x:c>
-      <x:c r="E22" s="23"/>
-      <x:c r="F22" s="22"/>
-      <x:c r="G22" s="23"/>
-    </x:row>
-    <x:row r="23" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A23" s="18"/>
-      <x:c r="B23" s="22"/>
-      <x:c r="C23" s="23"/>
-      <x:c r="D23" s="22" t="s">
-        <x:v>41</x:v>
-      </x:c>
-      <x:c r="E23" s="23"/>
-      <x:c r="F23" s="22"/>
-      <x:c r="G23" s="23"/>
-    </x:row>
-    <x:row r="24" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A24" s="17"/>
-      <x:c r="B24" s="19"/>
-      <x:c r="C24" s="20"/>
-      <x:c r="D24" s="19"/>
-      <x:c r="E24" s="20"/>
-      <x:c r="F24" s="19"/>
-      <x:c r="G24" s="20"/>
-    </x:row>
-    <x:row r="25" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A25" s="18"/>
-      <x:c r="B25" s="19" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="C25" s="20"/>
-      <x:c r="D25" s="19" t="s">
-        <x:v>16</x:v>
-      </x:c>
-      <x:c r="E25" s="20"/>
-      <x:c r="F25" s="19"/>
-      <x:c r="G25" s="20"/>
+      <x:c r="C25" s="21"/>
+      <x:c r="D25" s="20" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="E25" s="21"/>
+      <x:c r="F25" s="20"/>
+      <x:c r="G25" s="21"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="239.40000000000000568434" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B26" s="24" t="s">
-        <x:v>27</x:v>
-      </x:c>
-      <x:c r="C26" s="24"/>
-      <x:c r="D26" s="24"/>
-      <x:c r="E26" s="24"/>
-      <x:c r="F26" s="24"/>
-      <x:c r="G26" s="24"/>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B26" s="26" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C26" s="26"/>
+      <x:c r="D26" s="26"/>
+      <x:c r="E26" s="26"/>
+      <x:c r="F26" s="26"/>
+      <x:c r="G26" s="26"/>
     </x:row>
     <x:row r="27" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="28" ht="20.10000000000000142109" customHeight="1"/>
@@ -1873,7 +1912,7 @@
   <x:dimension ref="A1:G26"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <x:selection activeCell="D14" activeCellId="0" sqref="D14:E14"/>
+      <x:selection activeCell="D20" activeCellId="0" sqref="D20:E20"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -1886,300 +1925,302 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="39.95000000000000284217" customHeight="1">
-      <x:c r="A1" s="7" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="B1" s="7"/>
-      <x:c r="C1" s="7"/>
-      <x:c r="D1" s="7"/>
-      <x:c r="E1" s="7"/>
-      <x:c r="F1" s="7"/>
-      <x:c r="G1" s="7"/>
+      <x:c r="A1" s="8" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="B1" s="8"/>
+      <x:c r="C1" s="8"/>
+      <x:c r="D1" s="8"/>
+      <x:c r="E1" s="8"/>
+      <x:c r="F1" s="8"/>
+      <x:c r="G1" s="8"/>
     </x:row>
     <x:row r="2" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="3" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>36</x:v>
-      </x:c>
-      <x:c r="B3" s="8" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C3" s="8"/>
-      <x:c r="D3" s="8"/>
-      <x:c r="E3" s="8"/>
-      <x:c r="F3" s="8"/>
-      <x:c r="G3" s="8"/>
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="B3" s="9" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C3" s="9"/>
+      <x:c r="D3" s="9"/>
+      <x:c r="E3" s="9"/>
+      <x:c r="F3" s="9"/>
+      <x:c r="G3" s="9"/>
     </x:row>
     <x:row r="4" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="B4" s="9" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="C4" s="9"/>
-      <x:c r="D4" s="9"/>
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B4" s="10" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="C4" s="10"/>
+      <x:c r="D4" s="10"/>
       <x:c r="E4" s="1" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="F4" s="10">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="F4" s="11">
         <x:v>45775</x:v>
       </x:c>
-      <x:c r="G4" s="9"/>
+      <x:c r="G4" s="10"/>
     </x:row>
     <x:row r="5" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A5" s="1" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="B5" s="8" t="s">
-        <x:v>72</x:v>
-      </x:c>
-      <x:c r="C5" s="8"/>
-      <x:c r="D5" s="8"/>
-      <x:c r="E5" s="8"/>
-      <x:c r="F5" s="8"/>
-      <x:c r="G5" s="8"/>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B5" s="9" t="s">
+        <x:v>73</x:v>
+      </x:c>
+      <x:c r="C5" s="9"/>
+      <x:c r="D5" s="9"/>
+      <x:c r="E5" s="9"/>
+      <x:c r="F5" s="9"/>
+      <x:c r="G5" s="9"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="69.75" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="B6" s="11" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="B6" s="12" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C6" s="13"/>
+      <x:c r="D6" s="13"/>
+      <x:c r="E6" s="13"/>
+      <x:c r="F6" s="13"/>
+      <x:c r="G6" s="14"/>
+    </x:row>
+    <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A7" s="15" t="s">
+        <x:v>67</x:v>
+      </x:c>
+      <x:c r="B7" s="17" t="s">
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="C7" s="17"/>
+      <x:c r="D7" s="17"/>
+      <x:c r="E7" s="17"/>
+      <x:c r="F7" s="17"/>
+      <x:c r="G7" s="17"/>
+    </x:row>
+    <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A8" s="16"/>
+      <x:c r="B8" s="17" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C8" s="17"/>
+      <x:c r="D8" s="17"/>
+      <x:c r="E8" s="17"/>
+      <x:c r="F8" s="17"/>
+      <x:c r="G8" s="17"/>
+    </x:row>
+    <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A9" s="16"/>
+      <x:c r="B9" s="27" t="s">
+        <x:v>87</x:v>
+      </x:c>
+      <x:c r="C9" s="27"/>
+      <x:c r="D9" s="27"/>
+      <x:c r="E9" s="27"/>
+      <x:c r="F9" s="27"/>
+      <x:c r="G9" s="27"/>
+    </x:row>
+    <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
+      <x:c r="A10" s="15" t="s">
+        <x:v>74</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>62</x:v>
+      </x:c>
+      <x:c r="C10" s="10"/>
+      <x:c r="D10" s="10"/>
+      <x:c r="E10" s="10"/>
+      <x:c r="F10" s="10"/>
+      <x:c r="G10" s="10"/>
+    </x:row>
+    <x:row r="11" spans="1:7" ht="120" customHeight="1">
+      <x:c r="A11" s="16"/>
+      <x:c r="B11" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C11" s="10" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="D11" s="10"/>
+      <x:c r="E11" s="10"/>
+      <x:c r="F11" s="10"/>
+      <x:c r="G11" s="10"/>
+    </x:row>
+    <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
+      <x:c r="A12" s="16"/>
+      <x:c r="B12" s="1" t="s">
+        <x:v>61</x:v>
+      </x:c>
+      <x:c r="C12" s="10"/>
+      <x:c r="D12" s="10"/>
+      <x:c r="E12" s="10"/>
+      <x:c r="F12" s="10"/>
+      <x:c r="G12" s="10"/>
+    </x:row>
+    <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A13" s="18" t="s">
+        <x:v>75</x:v>
+      </x:c>
+      <x:c r="B13" s="16" t="s">
+        <x:v>72</x:v>
+      </x:c>
+      <x:c r="C13" s="16"/>
+      <x:c r="D13" s="16" t="s">
+        <x:v>76</x:v>
+      </x:c>
+      <x:c r="E13" s="16"/>
+      <x:c r="F13" s="16" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="G13" s="16"/>
+    </x:row>
+    <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A14" s="19"/>
+      <x:c r="B14" s="10" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="C14" s="10"/>
+      <x:c r="D14" s="10" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="E14" s="10"/>
+      <x:c r="F14" s="10"/>
+      <x:c r="G14" s="10"/>
+    </x:row>
+    <x:row r="15" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A15" s="18"/>
+      <x:c r="B15" s="20"/>
+      <x:c r="C15" s="21"/>
+      <x:c r="D15" s="20"/>
+      <x:c r="E15" s="21"/>
+      <x:c r="F15" s="20"/>
+      <x:c r="G15" s="21"/>
+    </x:row>
+    <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A16" s="19"/>
+      <x:c r="B16" s="10" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="C16" s="10"/>
+      <x:c r="D16" s="10" t="s">
+        <x:v>40</x:v>
+      </x:c>
+      <x:c r="E16" s="10"/>
+      <x:c r="F16" s="10"/>
+      <x:c r="G16" s="10"/>
+    </x:row>
+    <x:row r="17" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A17" s="19"/>
+      <x:c r="B17" s="10"/>
+      <x:c r="C17" s="10"/>
+      <x:c r="D17" s="10"/>
+      <x:c r="E17" s="10"/>
+      <x:c r="F17" s="10"/>
+      <x:c r="G17" s="10"/>
+    </x:row>
+    <x:row r="18" spans="1:7" ht="55.79999999999999715783" customHeight="1">
+      <x:c r="A18" s="19"/>
+      <x:c r="B18" s="10" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C18" s="10"/>
+      <x:c r="D18" s="22" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E18" s="10"/>
+      <x:c r="F18" s="10"/>
+      <x:c r="G18" s="10"/>
+    </x:row>
+    <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A19" s="19"/>
+      <x:c r="B19" s="10"/>
+      <x:c r="C19" s="10"/>
+      <x:c r="D19" s="22"/>
+      <x:c r="E19" s="10"/>
+      <x:c r="F19" s="10"/>
+      <x:c r="G19" s="10"/>
+    </x:row>
+    <x:row r="20" spans="1:7" ht="51.60000000000000142109" customHeight="1">
+      <x:c r="A20" s="19"/>
+      <x:c r="B20" s="23" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="C20" s="24"/>
+      <x:c r="D20" s="25" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="E20" s="24"/>
+      <x:c r="F20" s="23"/>
+      <x:c r="G20" s="24"/>
+    </x:row>
+    <x:row r="21" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A21" s="18"/>
+      <x:c r="B21" s="23"/>
+      <x:c r="C21" s="24"/>
+      <x:c r="D21" s="20"/>
+      <x:c r="E21" s="21"/>
+      <x:c r="F21" s="20"/>
+      <x:c r="G21" s="21"/>
+    </x:row>
+    <x:row r="22" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A22" s="19"/>
+      <x:c r="B22" s="23" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C22" s="24"/>
+      <x:c r="D22" s="23" t="s">
         <x:v>10</x:v>
       </x:c>
-      <x:c r="C6" s="12"/>
-      <x:c r="D6" s="12"/>
-      <x:c r="E6" s="12"/>
-      <x:c r="F6" s="12"/>
-      <x:c r="G6" s="13"/>
-    </x:row>
-    <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A7" s="14" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="B7" s="16" t="s">
-        <x:v>73</x:v>
-      </x:c>
-      <x:c r="C7" s="16"/>
-      <x:c r="D7" s="16"/>
-      <x:c r="E7" s="16"/>
-      <x:c r="F7" s="16"/>
-      <x:c r="G7" s="16"/>
-    </x:row>
-    <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A8" s="15"/>
-      <x:c r="B8" s="16" t="s">
-        <x:v>15</x:v>
-      </x:c>
-      <x:c r="C8" s="16"/>
-      <x:c r="D8" s="16"/>
-      <x:c r="E8" s="16"/>
-      <x:c r="F8" s="16"/>
-      <x:c r="G8" s="16"/>
-    </x:row>
-    <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A9" s="15"/>
-      <x:c r="B9" s="16"/>
-      <x:c r="C9" s="16"/>
-      <x:c r="D9" s="16"/>
-      <x:c r="E9" s="16"/>
-      <x:c r="F9" s="16"/>
-      <x:c r="G9" s="16"/>
-    </x:row>
-    <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
-      <x:c r="A10" s="14" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>64</x:v>
-      </x:c>
-      <x:c r="C10" s="9"/>
-      <x:c r="D10" s="9"/>
-      <x:c r="E10" s="9"/>
-      <x:c r="F10" s="9"/>
-      <x:c r="G10" s="9"/>
-    </x:row>
-    <x:row r="11" spans="1:7" ht="120" customHeight="1">
-      <x:c r="A11" s="15"/>
-      <x:c r="B11" s="1" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C11" s="9" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="D11" s="9"/>
-      <x:c r="E11" s="9"/>
-      <x:c r="F11" s="9"/>
-      <x:c r="G11" s="9"/>
-    </x:row>
-    <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
-      <x:c r="A12" s="15"/>
-      <x:c r="B12" s="1" t="s">
-        <x:v>58</x:v>
-      </x:c>
-      <x:c r="C12" s="9"/>
-      <x:c r="D12" s="9"/>
-      <x:c r="E12" s="9"/>
-      <x:c r="F12" s="9"/>
-      <x:c r="G12" s="9"/>
-    </x:row>
-    <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A13" s="17" t="s">
-        <x:v>69</x:v>
-      </x:c>
-      <x:c r="B13" s="15" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C13" s="15"/>
-      <x:c r="D13" s="15" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="E13" s="15"/>
-      <x:c r="F13" s="15" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="G13" s="15"/>
-    </x:row>
-    <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A14" s="18"/>
-      <x:c r="B14" s="9" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C14" s="9"/>
-      <x:c r="D14" s="9" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="E14" s="9"/>
-      <x:c r="F14" s="9"/>
-      <x:c r="G14" s="9"/>
-    </x:row>
-    <x:row r="15" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A15" s="17"/>
-      <x:c r="B15" s="19"/>
-      <x:c r="C15" s="20"/>
-      <x:c r="D15" s="19"/>
-      <x:c r="E15" s="20"/>
-      <x:c r="F15" s="19"/>
-      <x:c r="G15" s="20"/>
-    </x:row>
-    <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A16" s="18"/>
-      <x:c r="B16" s="9" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C16" s="9"/>
-      <x:c r="D16" s="9" t="s">
-        <x:v>85</x:v>
-      </x:c>
-      <x:c r="E16" s="9"/>
-      <x:c r="F16" s="9"/>
-      <x:c r="G16" s="9"/>
-    </x:row>
-    <x:row r="17" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A17" s="18"/>
-      <x:c r="B17" s="9"/>
-      <x:c r="C17" s="9"/>
-      <x:c r="D17" s="9"/>
-      <x:c r="E17" s="9"/>
-      <x:c r="F17" s="9"/>
-      <x:c r="G17" s="9"/>
-    </x:row>
-    <x:row r="18" spans="1:7" ht="55.79999999999999715783" customHeight="1">
-      <x:c r="A18" s="18"/>
-      <x:c r="B18" s="9" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="C18" s="9"/>
-      <x:c r="D18" s="21" t="s">
-        <x:v>1</x:v>
-      </x:c>
-      <x:c r="E18" s="9"/>
-      <x:c r="F18" s="9"/>
-      <x:c r="G18" s="9"/>
-    </x:row>
-    <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A19" s="18"/>
-      <x:c r="B19" s="9"/>
-      <x:c r="C19" s="9"/>
-      <x:c r="D19" s="21"/>
-      <x:c r="E19" s="9"/>
-      <x:c r="F19" s="9"/>
-      <x:c r="G19" s="9"/>
-    </x:row>
-    <x:row r="20" spans="1:7" ht="51.60000000000000142109" customHeight="1">
-      <x:c r="A20" s="18"/>
-      <x:c r="B20" s="22" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="C20" s="23"/>
-      <x:c r="D20" s="25" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="E20" s="23"/>
-      <x:c r="F20" s="22"/>
-      <x:c r="G20" s="23"/>
-    </x:row>
-    <x:row r="21" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A21" s="17"/>
-      <x:c r="B21" s="22"/>
-      <x:c r="C21" s="23"/>
-      <x:c r="D21" s="19"/>
-      <x:c r="E21" s="20"/>
-      <x:c r="F21" s="19"/>
-      <x:c r="G21" s="20"/>
-    </x:row>
-    <x:row r="22" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A22" s="18"/>
-      <x:c r="B22" s="22" t="s">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="C22" s="23"/>
-      <x:c r="D22" s="22" t="s">
-        <x:v>82</x:v>
-      </x:c>
-      <x:c r="E22" s="23"/>
-      <x:c r="F22" s="22"/>
-      <x:c r="G22" s="23"/>
+      <x:c r="E22" s="24"/>
+      <x:c r="F22" s="23"/>
+      <x:c r="G22" s="24"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A23" s="18"/>
-      <x:c r="B23" s="22"/>
-      <x:c r="C23" s="23"/>
-      <x:c r="D23" s="22"/>
-      <x:c r="E23" s="23"/>
-      <x:c r="F23" s="22"/>
-      <x:c r="G23" s="23"/>
+      <x:c r="A23" s="19"/>
+      <x:c r="B23" s="23"/>
+      <x:c r="C23" s="24"/>
+      <x:c r="D23" s="23"/>
+      <x:c r="E23" s="24"/>
+      <x:c r="F23" s="23"/>
+      <x:c r="G23" s="24"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A24" s="17"/>
-      <x:c r="B24" s="19"/>
-      <x:c r="C24" s="20"/>
-      <x:c r="D24" s="19"/>
-      <x:c r="E24" s="20"/>
-      <x:c r="F24" s="19"/>
-      <x:c r="G24" s="20"/>
+      <x:c r="A24" s="18"/>
+      <x:c r="B24" s="20"/>
+      <x:c r="C24" s="21"/>
+      <x:c r="D24" s="20"/>
+      <x:c r="E24" s="21"/>
+      <x:c r="F24" s="20"/>
+      <x:c r="G24" s="21"/>
     </x:row>
     <x:row r="25" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A25" s="18"/>
-      <x:c r="B25" s="19"/>
-      <x:c r="C25" s="20"/>
-      <x:c r="D25" s="19"/>
-      <x:c r="E25" s="20"/>
-      <x:c r="F25" s="19"/>
-      <x:c r="G25" s="20"/>
+      <x:c r="A25" s="19"/>
+      <x:c r="B25" s="20"/>
+      <x:c r="C25" s="21"/>
+      <x:c r="D25" s="20"/>
+      <x:c r="E25" s="21"/>
+      <x:c r="F25" s="20"/>
+      <x:c r="G25" s="21"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="239.40000000000000568434" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>66</x:v>
-      </x:c>
-      <x:c r="B26" s="24" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="C26" s="24"/>
-      <x:c r="D26" s="24"/>
-      <x:c r="E26" s="24"/>
-      <x:c r="F26" s="24"/>
-      <x:c r="G26" s="24"/>
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="B26" s="26" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C26" s="26"/>
+      <x:c r="D26" s="26"/>
+      <x:c r="E26" s="26"/>
+      <x:c r="F26" s="26"/>
+      <x:c r="G26" s="26"/>
     </x:row>
     <x:row r="27" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="28" ht="20.10000000000000142109" customHeight="1"/>
@@ -2259,6 +2300,7 @@
   <x:hyperlinks>
     <x:hyperlink ref="B7:G7" r:id="rId1"/>
     <x:hyperlink ref="B8:G8" r:id="rId2"/>
+    <x:hyperlink ref="B9:G9" r:id="rId3"/>
   </x:hyperlinks>
   <x:pageMargins left="0.69972223043441772461" right="0.69972223043441772461" top="0.75" bottom="0.75" header="0.30000001192092895508" footer="0.30000001192092895508"/>
   <x:pageSetup paperSize="9" scale="91" firstPageNumber="1" fitToWidth="1" fitToHeight="0" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" useFirstPageNumber="0" horizontalDpi="600" verticalDpi="600" copies="1"/>
@@ -2285,99 +2327,99 @@
   <x:sheetData>
     <x:row r="4" spans="2:7">
       <x:c r="B4" t="s">
-        <x:v>32</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>67</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>71</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="G4" t="s">
-        <x:v>81</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:8" ht="318" customHeight="1">
       <x:c r="B5" s="4" t="s">
-        <x:v>63</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="G5" s="26" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="H5" s="26" t="s">
-        <x:v>77</x:v>
+        <x:v>34</x:v>
+      </x:c>
+      <x:c r="G5" s="7" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="H5" s="7" t="s">
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:6">
       <x:c r="B6" s="4" t="s">
-        <x:v>48</x:v>
+        <x:v>44</x:v>
       </x:c>
       <x:c r="F6" t="s">
-        <x:v>70</x:v>
+        <x:v>79</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:6">
       <x:c r="B7" s="4"/>
       <x:c r="F7" t="s">
-        <x:v>53</x:v>
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:6">
       <x:c r="B8" s="4" t="s">
-        <x:v>18</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="D8" t="s">
         <x:v>60</x:v>
       </x:c>
       <x:c r="F8" t="s">
-        <x:v>51</x:v>
+        <x:v>70</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="65.5">
       <x:c r="B9" s="4" t="s">
-        <x:v>50</x:v>
+        <x:v>41</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>13</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="E9" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>14</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:3" ht="81.84999999999999431566">
       <x:c r="B10" s="4" t="s">
-        <x:v>25</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>4</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:4" ht="81.84999999999999431566">
       <x:c r="B11" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="C11" s="6" t="s">
-        <x:v>26</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="D11" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>38</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:3" ht="98.25">
       <x:c r="B12" s="4" t="s">
-        <x:v>74</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
         <x:v>5</x:v>
@@ -2388,37 +2430,37 @@
     </x:row>
     <x:row r="14" spans="2:2" ht="32.75">
       <x:c r="B14" s="4" t="s">
-        <x:v>3</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:2">
       <x:c r="B15" s="4" t="s">
-        <x:v>17</x:v>
+        <x:v>32</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:2" ht="32.75">
       <x:c r="B16" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:2">
       <x:c r="B17" s="4" t="s">
-        <x:v>46</x:v>
+        <x:v>45</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:2" ht="49.14999999999999857891">
       <x:c r="B18" s="4" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:2">
       <x:c r="B19" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>21</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:2">
       <x:c r="B20" s="4" t="s">
-        <x:v>42</x:v>
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:2">

--- a/00 포트폴리오/포트폴리오기획서-정재녕(앵글340)-2.xlsx
+++ b/00 포트폴리오/포트폴리오기획서-정재녕(앵글340)-2.xlsx
@@ -21,20 +21,28 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
-  <x:si>
-    <x:t xml:space="preserve">웹페이지를 통한 브랜드 아이덴티티를 부각하고 이미지 선호도를 향상시킨다.
-리디자인을 통해 사용자 친화적이고 접근성이 높은 플랫폼으로 거듭날 수 있도록 구현한다. </x:t>
+<x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
+  <x:si>
+    <x:t>독창적인 가구 및 오브제, 햇살 가득한 창가자리 -&gt; 따뜻한 나무질감의 바닥, 거친 콘크리트 벽의 조화 및 커다란 화분의 도심속 작은 정원을 연상</x:t>
+  </x:si>
+  <x:si>
+    <x:t>조용하지만 감각적인 느낌의 까페를 찾고 싶어하는 고객 , 을지로의 힙한 감성 카페 타이틀 홍보, 나만 알고 싶은 을지로 핫플레이스로의 이미지 상승</x:t>
+  </x:si>
+  <x:si>
+    <x:t>안녕하세요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청계천 나들이중 잠시 머물다 갈수 있는 좋은곳 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">카페에 전시된 그림, 포스터, 오브제 체험
+(사진 슬라이드 및 줌인아웃 효과 + 사진별 간단한 설명 추가) </x:t>
+  </x:si>
+  <x:si>
+    <x:t>디자인 시안 제작시 고려</x:t>
   </x:si>
   <x:si>
     <x:t>을지로 - 낡은 간판, 세월이 스며든 골목길, 공구상점의 요소들을 현대적인 감각으로 반영, 거친 질감의 벽면, 노출 콘크리트 다채로운 컬러의 빈티지 체어 &amp; 조명, 창문을 통해 들어오는 자연광 -&gt; 하나의 전시공간</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페 인테리어, 분위기, 창가자리, 자연광 포인트 소개
-(공간별 사진 슬라이드 및 줌인아웃 효과 + 사진별 간단한 설명 추가)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.enewstoday.co.kr/news/articleView.html?idxno=2153878#:~:text=%ED%95%9C%EA%B5%ADIR%ED%98%91%EC%9D%98%ED%9A%8C%20%EA%B8%B0%EC%97%85%EB%A6%AC%EC%84%9C%EC%B9%98%EC%84%BC%ED%84%B0%EB%8A%94%20%EB%A6%AC%EC%8A%A4%ED%81%AC%20%EC%9A%94%EC%9D%B8%EC%9C%BC%EB%A1%9C%20'%EC%84%B1%EC%9E%A5%EC%84%B1%20%EB%91%94%ED%99%94%EC%97%90%20%EB%8C%80%ED%95%9C,%EC%9A%B0%EB%A0%A4%EA%B0%80%20%EC%9E%88%EC%9C%BC%EB%A9%B0%2C%20%EC%9D%B4%EB%A1%9C%20%EC%9D%B8%ED%95%B4%20%EC%97%85%EA%B3%84%201%EC%9C%84%20%EA%B8%B0%EC%97%85</x:t>
   </x:si>
   <x:si>
     <x:t>1. Blend
@@ -51,64 +59,6 @@
 초콜릿과 카라멜의 고소함과 사과의 상큼함이 밸런스있고 부드러운 디카페인 원두입니다.</x:t>
   </x:si>
   <x:si>
-    <x:t>콜렉팅한 그림 작품과 세련된 그림이 어우러져 마치 갤러리에 온 듯한 분위기의 카페, 커피를 마시고 대화를 나누거나 사색을 나누기에 넓고 편한공간 벽면에 걸린 감각적인 포스터와 창밖으로 보이는 도심풍경이 어우러지면서 감각적인 경험 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=90094</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시적 감성 카페, 외벽 아트워크, 빈티지한 분위기 &amp; 거칠면서도 감각적인 인테리어를 반영한 페이지구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://www.bosa.co.kr/news/articleView.html?idxno=2222508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>■ 개인 카페 인스타그램 홍보의 한계점,  홈페이지 홍보를 활용해야하는 이유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지도, 운영시간, 전화번호를 제공해서 방문자가 쉽게 찾아올 수 있게 제공</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 아늑한 분위기,  감각적인 빈티지 인테리어, 커피와 음악을 함께 하기 좋은 장소라는 컨셉 구축(커피+음악+공간을 같이 즐기는 컨셉)
- </x:t>
-  </x:si>
-  <x:si>
-    <x:t>해시태그 검색 -&gt; 노출의 한계점 -&gt; 홈페이지 검색 엔진 최적화(SEO)를 통해 포털사이트의 검색확률을 높이고 지속적인 방문자 유입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>독창적인 가구 및 오브제, 햇살 가득한 창가자리 -&gt; 따뜻한 나무질감의 바닥, 거친 콘크리트 벽의 조화 및 커다란 화분의 도심속 작은 정원을 연상</x:t>
-  </x:si>
-  <x:si>
-    <x:t>조용하지만 감각적인 느낌의 까페를 찾고 싶어하는 고객 , 을지로의 힙한 감성 카페 타이틀 홍보, 나만 알고 싶은 을지로 핫플레이스로의 이미지 상승</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://blog.naver.com/reading_mindset/223827060245</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영업시간, 메뉴, 이벤트 등 중요한 정보들을 찾기위한 고객의  불필요한 시간낭비 줄이기</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.dessert39.com/main.php</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나에게 맞는 건강관리 여행 시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시그니쳐 디저트 메뉴 UI 화</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3. 브랜딩과 신뢰도의 문제 </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">카페의 정체성을 명확히 보여주고 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>인플루언서와 같이하는 건강체크</x:t>
-  </x:si>
-  <x:si>
     <x:t>원두보관함,철제선반,조명 빈티지 가스레인지&amp;오븐 등등(오븐은 지금 수납공갑으로 쓰고 있답니다😳) 곳곳에 다양하게 인테리어 했습니다. 아 참!저희는 메뉴판도 스틸이랍니다!
 저희 앵글340은 을지로의 빈티지한 감성을 그대로 살린 거친 벽면과 을지로 특색을 살리고 싶어서 스틸을 전체적으로 사용하여 통일감을 주었습니다.
 전체적인 매장의 인테리어컨셉은 미드센츄리 모던 스타일로 꾸며 보았습니다 .빈티지한 감성을 그대로 살려 매장의 모든 가구와 조명들은 전부 오리지널 제품들로 꾸며져있습니다.
@@ -116,97 +66,33 @@
 커피와 함께 공간도 같이 즐겨주세요.</x:t>
   </x:si>
   <x:si>
-    <x:t xml:space="preserve">1. 웹사이트를 방문하는 사용자에게 브랜드 아이덴티티 강조
-2. 네비게이션 메뉴를 구현하여 사용자에게 가독성있고 정돈된 정보를 전달 
-3. "도심 속 숨겨진 감성 갤러리 카페" 를 컨셉으로 방문 전부터 공간의 무드와 감성을 체험할 수 있게 전달  </x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">카페에 전시된 그림, 포스터, 오브제 체험
-(사진 슬라이드 및 줌인아웃 효과 + 사진별 간단한 설명 추가) </x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디 철학/연혁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRODUCTS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MY INBODY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.감각적인 인테리어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABOUT US</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 정보의 한계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기획의도(목적)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앵글340 크림라떼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포트폴리오 기획서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웹사이트 이미지 반영</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GALLERY </x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://collabospace.kr/space/angle340/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bwissue.com/cafeinfo/1856703</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드형 메뉴 소개 레이아웃(클릭 시 호버 기능으로 상세 확인 기능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.조용하고 아늑한 느낌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디란? 인바디 용어 해설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BI소개/브랜드 파워 소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 모양 쿠키 일러화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 검색 노출의 한계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과정명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정재녕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
+    <x:t>콜렉팅한 그림 작품과 세련된 그림이 어우러져 마치 갤러리에 온 듯한 분위기의 카페, 커피를 마시고 대화를 나누거나 사색을 나누기에 넓고 편한공간 벽면에 걸린 감각적인 포스터와 창밖으로 보이는 도심풍경이 어우러지면서 감각적인 경험 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">웹페이지를 통한 브랜드 아이덴티티를 부각하고 이미지 선호도를 향상시킨다.
+리디자인을 통해 사용자 친화적이고 접근성이 높은 플랫폼으로 거듭날 수 있도록 구현한다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.bosa.co.kr/news/articleView.html?idxno=2222508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시적 감성 카페, 외벽 아트워크, 빈티지한 분위기 &amp; 거칠면서도 감각적인 인테리어를 반영한 페이지구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=90094</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 아늑한 분위기,  감각적인 빈티지 인테리어, 커피와 음악을 함께 하기 좋은 장소라는 컨셉 구축(커피+음악+공간을 같이 즐기는 컨셉)
+ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>해시태그 검색 -&gt; 노출의 한계점 -&gt; 홈페이지 검색 엔진 최적화(SEO)를 통해 포털사이트의 검색확률을 높이고 지속적인 방문자 유입</x:t>
+  </x:si>
+  <x:si>
+    <x:t>■ 개인 카페 인스타그램 홍보의 한계점,  홈페이지 홍보를 활용해야하는 이유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>지도, 운영시간, 전화번호를 제공해서 방문자가 쉽게 찾아올 수 있게 제공</x:t>
   </x:si>
   <x:si>
     <x:t>의료분야가 치료 중심에서 예방‧관리 중심으로 패러다임이 변화 -&gt; 건강관리에 있어 ‘체성분 분석기기’ 의 중요성이 더 강화 전망
@@ -218,31 +104,131 @@
 웹사이트 전체의 레이아웃과 시각적 요소를 안정적이고 신뢰감 있는 브랜드 이미지를 전달할 수 있도록 리디자인 -&gt; 사용자 진입 후 개인용 제품 탐색 비율 증가를 목표</x:t>
   </x:si>
   <x:si>
+    <x:t>BI소개/브랜드 파워 소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 검색 노출의 한계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 모양 쿠키 일러화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디란? 인바디 용어 해설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.조용하고 아늑한 느낌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABOUT US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기획의도(목적)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MY INBODY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앵글340 크림라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포트폴리오 기획서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹사이트 이미지 반영</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GALLERY </x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRODUCTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.감각적인 인테리어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디 철학/연혁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 정보의 한계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영업시간, 메뉴, 이벤트 등 중요한 정보들을 찾기위한 고객의  불필요한 시간낭비 줄이기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://blog.naver.com/reading_mindset/223827060245</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1. 웹사이트를 방문하는 사용자에게 브랜드 아이덴티티 강조
+2. 네비게이션 메뉴를 구현하여 사용자에게 가독성있고 정돈된 정보를 전달 
+3. "도심 속 숨겨진 감성 갤러리 카페" 를 컨셉으로 방문 전부터 공간의 무드와 감성을 체험할 수 있게 전달  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페 인테리어, 분위기, 창가자리, 자연광 포인트 소개
+(공간별 사진 슬라이드 및 줌인아웃 효과 + 사진별 간단한 설명 추가)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카드형 메뉴 소개 레이아웃(클릭 시 호버 기능으로 상세 확인 기능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://collabospace.kr/space/angle340/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bwissue.com/cafeinfo/1856703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인플루언서와 같이하는 건강체크</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">카페의 정체성을 명확히 보여주고 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>베이글라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABOUT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인화면
+구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 디저트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청계천라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴구축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MENU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앵글340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴 구성</x:t>
+  </x:si>
+  <x:si>
     <x:t>VISIT</x:t>
   </x:si>
   <x:si>
-    <x:t>SPACE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원두소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>톤앤매너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Footer</x:t>
-  </x:si>
-  <x:si>
     <x:t>Header</x:t>
   </x:si>
   <x:si>
-    <x:t>Depth3</x:t>
-  </x:si>
-  <x:si>
     <x:t>바다라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BI소개</x:t>
   </x:si>
   <x:si>
     <x:t>기타 의견</x:t>
@@ -255,65 +241,103 @@
 사이트</x:t>
   </x:si>
   <x:si>
+    <x:t>HOME</x:t>
+  </x:si>
+  <x:si>
     <x:t>참고 사이트</x:t>
   </x:si>
   <x:si>
-    <x:t>HOME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>베이글라떼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MENU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앵글340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인화면
-구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABOUT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 디저트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청계천라떼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴구축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BI소개</x:t>
+    <x:t>회사소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>톤앤매너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPACE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Footer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원두소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.dessert39.com/main.php</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청계천이 보이는 세운상가 옆에 위치한 앵글340(angle340) 카페 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>커피 역시 매장 시그니쳐 메뉴인 앵글340 크림라떼 와 청계천라떼 준비했습니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.enewstoday.co.kr/news/articleView.html?idxno=2153878#:~:text=%ED%95%9C%EA%B5%ADIR%ED%98%91%EC%9D%98%ED%9A%8C%20%EA%B8%B0%EC%97%85%EB%A6%AC%EC%84%9C%EC%B9%98%EC%84%BC%ED%84%B0%EB%8A%94%20%EB%A6%AC%EC%8A%A4%ED%81%AC%20%EC%9A%94%EC%9D%B8%EC%9C%BC%EB%A1%9C%20'%EC%84%B1%EC%9E%A5%EC%84%B1%20%EB%91%94%ED%99%94%EC%97%90%20%EB%8C%80%ED%95%9C,%EC%9A%B0%EB%A0%A4%EA%B0%80%20%EC%9E%88%EC%9C%BC%EB%A9%B0%2C%20%EC%9D%B4%EB%A1%9C%20%EC%9D%B8%ED%95%B4%20%EC%97%85%EA%B3%84%201%EC%9C%84%20%EA%B8%B0%EC%97%85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>나에게 맞는 건강관리 여행 시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>시그니쳐 디저트 메뉴 UI 화</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3. 브랜딩과 신뢰도의 문제 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과정명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정재녕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://coffee9.co.kr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cmlandco.kr/</x:t>
   </x:si>
   <x:si>
     <x:t>4. 갤러리에 온듯 한 분위기의 카페</x:t>
   </x:si>
   <x:si>
-    <x:t>https://coffee9.co.kr/</x:t>
-  </x:si>
-  <x:si>
     <x:t>맞춤 건강 솔루션/사전 진단, 질병예방</x:t>
   </x:si>
   <x:si>
+    <x:t>전체적인 내부 전경 이미지와 카페 분위기 설명</x:t>
+  </x:si>
+  <x:si>
     <x:t>3.다양한 오리지널 빈티지 조명 및 인테리어</x:t>
   </x:si>
   <x:si>
-    <x:t>전체적인 내부 전경 이미지와 카페 분위기 설명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cmlandco.kr/</x:t>
+    <x:t>이미지 내용 글자 크기 내용 간격 영역 배경 소스 부분을 전부 고려해서 완성이 중요</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저희 매장은 미드센츄리 제품의 가구로 매장을 디자인 했으며 각종 소품과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빈티지 오디오 및 포스터 그림으로 다양하게 디자인한 카페 입니다</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -436,11 +460,7 @@
         <x:font hs:extension="1">
           <x:name val="맑은 고딕"/>
           <x:sz val="12"/>
-          <x:color rgb="ff0000ff"/>
-          <x:u/>
-          <hs:underlineType val="1"/>
-          <hs:underlineShape val="solid"/>
-          <hs:underlineColor rgb="ff0000ff"/>
+          <x:color rgb="ff334155"/>
           <hs:size val="100"/>
           <hs:ratio val="100"/>
           <hs:spacing val="0"/>
@@ -451,13 +471,12 @@
         <x:font>
           <x:name val="맑은 고딕"/>
           <x:sz val="12"/>
-          <x:color rgb="ff0000ff"/>
-          <x:u/>
+          <x:color rgb="ff334155"/>
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
   </x:fonts>
-  <x:fills count="3">
+  <x:fills count="4">
     <x:fill>
       <x:patternFill patternType="none"/>
     </x:fill>
@@ -470,8 +489,14 @@
         <x:bgColor indexed="64"/>
       </x:patternFill>
     </x:fill>
+    <x:fill>
+      <x:patternFill patternType="solid">
+        <x:fgColor rgb="fff1f5f9"/>
+        <x:bgColor indexed="64"/>
+      </x:patternFill>
+    </x:fill>
   </x:fills>
-  <x:borders count="7">
+  <x:borders count="8">
     <x:border>
       <x:left>
         <x:color rgb="ff000000"/>
@@ -570,6 +595,20 @@
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
+    <x:border>
+      <x:left style="thick">
+        <x:color rgb="ffe5e7eb"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="ffe5e7eb"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="ffe5e7eb"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="ffe5e7eb"/>
+      </x:bottom>
+    </x:border>
   </x:borders>
   <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -785,6 +824,9 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -798,11 +840,8 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
-    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
@@ -814,7 +853,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -897,7 +935,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -932,7 +969,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -977,7 +1013,6 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1021,7 +1056,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1106,7 +1140,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1127,7 +1160,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1158,7 +1190,6 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
-            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1521,7 +1552,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="39.95000000000000284217" customHeight="1">
       <x:c r="A1" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B1" s="8"/>
       <x:c r="C1" s="8"/>
@@ -1533,10 +1564,10 @@
     <x:row r="2" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="3" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B3" s="9" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C3" s="9"/>
       <x:c r="D3" s="9"/>
@@ -1546,15 +1577,15 @@
     </x:row>
     <x:row r="4" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B4" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C4" s="10"/>
       <x:c r="D4" s="10"/>
       <x:c r="E4" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F4" s="11">
         <x:v>45765</x:v>
@@ -1563,10 +1594,10 @@
     </x:row>
     <x:row r="5" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A5" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B5" s="9" t="s">
-        <x:v>50</x:v>
+        <x:v>82</x:v>
       </x:c>
       <x:c r="C5" s="9"/>
       <x:c r="D5" s="9"/>
@@ -1576,10 +1607,10 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="61.79999999999999715783" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B6" s="12" t="s">
-        <x:v>0</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="C6" s="13"/>
       <x:c r="D6" s="13"/>
@@ -1589,10 +1620,10 @@
     </x:row>
     <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A7" s="15" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B7" s="17" t="s">
-        <x:v>8</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C7" s="17"/>
       <x:c r="D7" s="17"/>
@@ -1603,7 +1634,7 @@
     <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A8" s="16"/>
       <x:c r="B8" s="17" t="s">
-        <x:v>3</x:v>
+        <x:v>74</x:v>
       </x:c>
       <x:c r="C8" s="17"/>
       <x:c r="D8" s="17"/>
@@ -1614,7 +1645,7 @@
     <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A9" s="16"/>
       <x:c r="B9" s="17" t="s">
-        <x:v>6</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="C9" s="17"/>
       <x:c r="D9" s="17"/>
@@ -1624,10 +1655,10 @@
     </x:row>
     <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A10" s="15" t="s">
-        <x:v>74</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C10" s="10"/>
       <x:c r="D10" s="10"/>
@@ -1638,10 +1669,10 @@
     <x:row r="11" spans="1:7" ht="120" customHeight="1">
       <x:c r="A11" s="16"/>
       <x:c r="B11" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>43</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="D11" s="10"/>
       <x:c r="E11" s="10"/>
@@ -1651,7 +1682,7 @@
     <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A12" s="16"/>
       <x:c r="B12" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C12" s="10"/>
       <x:c r="D12" s="10"/>
@@ -1661,25 +1692,25 @@
     </x:row>
     <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A13" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B13" s="16" t="s">
-        <x:v>72</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C13" s="16"/>
       <x:c r="D13" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E13" s="16"/>
       <x:c r="F13" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G13" s="16"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A14" s="19"/>
       <x:c r="B14" s="10" t="s">
-        <x:v>31</x:v>
+        <x:v>24</x:v>
       </x:c>
       <x:c r="C14" s="10"/>
       <x:c r="D14" s="10"/>
@@ -1699,11 +1730,11 @@
     <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A16" s="19"/>
       <x:c r="B16" s="10" t="s">
-        <x:v>28</x:v>
+        <x:v>31</x:v>
       </x:c>
       <x:c r="C16" s="10"/>
       <x:c r="D16" s="10" t="s">
-        <x:v>69</x:v>
+        <x:v>63</x:v>
       </x:c>
       <x:c r="E16" s="10"/>
       <x:c r="F16" s="10"/>
@@ -1714,7 +1745,7 @@
       <x:c r="B17" s="10"/>
       <x:c r="C17" s="10"/>
       <x:c r="D17" s="10" t="s">
-        <x:v>49</x:v>
+        <x:v>78</x:v>
       </x:c>
       <x:c r="E17" s="10"/>
       <x:c r="F17" s="10"/>
@@ -1732,11 +1763,11 @@
     <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A19" s="19"/>
       <x:c r="B19" s="10" t="s">
-        <x:v>29</x:v>
+        <x:v>26</x:v>
       </x:c>
       <x:c r="C19" s="10"/>
       <x:c r="D19" s="22" t="s">
-        <x:v>84</x:v>
+        <x:v>90</x:v>
       </x:c>
       <x:c r="E19" s="10"/>
       <x:c r="F19" s="10"/>
@@ -1747,7 +1778,7 @@
       <x:c r="B20" s="10"/>
       <x:c r="C20" s="10"/>
       <x:c r="D20" s="23" t="s">
-        <x:v>23</x:v>
+        <x:v>42</x:v>
       </x:c>
       <x:c r="E20" s="24"/>
       <x:c r="F20" s="23"/>
@@ -1767,7 +1798,7 @@
       <x:c r="B22" s="23"/>
       <x:c r="C22" s="24"/>
       <x:c r="D22" s="23" t="s">
-        <x:v>42</x:v>
+        <x:v>22</x:v>
       </x:c>
       <x:c r="E22" s="24"/>
       <x:c r="F22" s="23"/>
@@ -1778,7 +1809,7 @@
       <x:c r="B23" s="23"/>
       <x:c r="C23" s="24"/>
       <x:c r="D23" s="23" t="s">
-        <x:v>19</x:v>
+        <x:v>75</x:v>
       </x:c>
       <x:c r="E23" s="24"/>
       <x:c r="F23" s="23"/>
@@ -1796,11 +1827,11 @@
     <x:row r="25" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A25" s="19"/>
       <x:c r="B25" s="20" t="s">
-        <x:v>59</x:v>
+        <x:v>65</x:v>
       </x:c>
       <x:c r="C25" s="21"/>
       <x:c r="D25" s="20" t="s">
-        <x:v>27</x:v>
+        <x:v>33</x:v>
       </x:c>
       <x:c r="E25" s="21"/>
       <x:c r="F25" s="20"/>
@@ -1808,16 +1839,16 @@
     </x:row>
     <x:row r="26" spans="1:7" ht="239.40000000000000568434" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B26" s="26" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="C26" s="26"/>
-      <x:c r="D26" s="26"/>
-      <x:c r="E26" s="26"/>
-      <x:c r="F26" s="26"/>
-      <x:c r="G26" s="26"/>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B26" s="25" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C26" s="25"/>
+      <x:c r="D26" s="25"/>
+      <x:c r="E26" s="25"/>
+      <x:c r="F26" s="25"/>
+      <x:c r="G26" s="25"/>
     </x:row>
     <x:row r="27" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="28" ht="20.10000000000000142109" customHeight="1"/>
@@ -1912,7 +1943,7 @@
   <x:dimension ref="A1:G26"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <x:selection activeCell="D20" activeCellId="0" sqref="D20:E20"/>
+      <x:selection activeCell="A1" activeCellId="0" sqref="A1:G1"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -1926,7 +1957,7 @@
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="39.95000000000000284217" customHeight="1">
       <x:c r="A1" s="8" t="s">
-        <x:v>35</x:v>
+        <x:v>28</x:v>
       </x:c>
       <x:c r="B1" s="8"/>
       <x:c r="C1" s="8"/>
@@ -1938,10 +1969,10 @@
     <x:row r="2" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="3" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>48</x:v>
+        <x:v>80</x:v>
       </x:c>
       <x:c r="B3" s="9" t="s">
-        <x:v>17</x:v>
+        <x:v>71</x:v>
       </x:c>
       <x:c r="C3" s="9"/>
       <x:c r="D3" s="9"/>
@@ -1951,15 +1982,15 @@
     </x:row>
     <x:row r="4" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>46</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="B4" s="10" t="s">
-        <x:v>51</x:v>
+        <x:v>83</x:v>
       </x:c>
       <x:c r="C4" s="10"/>
       <x:c r="D4" s="10"/>
       <x:c r="E4" s="1" t="s">
-        <x:v>52</x:v>
+        <x:v>79</x:v>
       </x:c>
       <x:c r="F4" s="11">
         <x:v>45775</x:v>
@@ -1968,10 +1999,10 @@
     </x:row>
     <x:row r="5" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A5" s="1" t="s">
-        <x:v>53</x:v>
+        <x:v>86</x:v>
       </x:c>
       <x:c r="B5" s="9" t="s">
-        <x:v>73</x:v>
+        <x:v>54</x:v>
       </x:c>
       <x:c r="C5" s="9"/>
       <x:c r="D5" s="9"/>
@@ -1981,10 +2012,10 @@
     </x:row>
     <x:row r="6" spans="1:7" ht="69.75" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>33</x:v>
+        <x:v>25</x:v>
       </x:c>
       <x:c r="B6" s="12" t="s">
-        <x:v>25</x:v>
+        <x:v>37</x:v>
       </x:c>
       <x:c r="C6" s="13"/>
       <x:c r="D6" s="13"/>
@@ -1994,10 +2025,10 @@
     </x:row>
     <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A7" s="15" t="s">
-        <x:v>67</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="B7" s="17" t="s">
-        <x:v>83</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="C7" s="17"/>
       <x:c r="D7" s="17"/>
@@ -2008,7 +2039,7 @@
     <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A8" s="16"/>
       <x:c r="B8" s="17" t="s">
-        <x:v>18</x:v>
+        <x:v>70</x:v>
       </x:c>
       <x:c r="C8" s="17"/>
       <x:c r="D8" s="17"/>
@@ -2018,21 +2049,21 @@
     </x:row>
     <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A9" s="16"/>
-      <x:c r="B9" s="27" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C9" s="27"/>
-      <x:c r="D9" s="27"/>
-      <x:c r="E9" s="27"/>
-      <x:c r="F9" s="27"/>
-      <x:c r="G9" s="27"/>
+      <x:c r="B9" s="17" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C9" s="17"/>
+      <x:c r="D9" s="17"/>
+      <x:c r="E9" s="17"/>
+      <x:c r="F9" s="17"/>
+      <x:c r="G9" s="17"/>
     </x:row>
     <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A10" s="15" t="s">
-        <x:v>74</x:v>
+        <x:v>48</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>62</x:v>
+        <x:v>57</x:v>
       </x:c>
       <x:c r="C10" s="10"/>
       <x:c r="D10" s="10"/>
@@ -2043,10 +2074,10 @@
     <x:row r="11" spans="1:7" ht="120" customHeight="1">
       <x:c r="A11" s="16"/>
       <x:c r="B11" s="1" t="s">
-        <x:v>66</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="C11" s="10" t="s">
-        <x:v>81</x:v>
+        <x:v>59</x:v>
       </x:c>
       <x:c r="D11" s="10"/>
       <x:c r="E11" s="10"/>
@@ -2056,7 +2087,7 @@
     <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
       <x:c r="A12" s="16"/>
       <x:c r="B12" s="1" t="s">
-        <x:v>61</x:v>
+        <x:v>68</x:v>
       </x:c>
       <x:c r="C12" s="10"/>
       <x:c r="D12" s="10"/>
@@ -2066,29 +2097,29 @@
     </x:row>
     <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A13" s="18" t="s">
-        <x:v>75</x:v>
+        <x:v>55</x:v>
       </x:c>
       <x:c r="B13" s="16" t="s">
-        <x:v>72</x:v>
+        <x:v>45</x:v>
       </x:c>
       <x:c r="C13" s="16"/>
       <x:c r="D13" s="16" t="s">
-        <x:v>76</x:v>
+        <x:v>53</x:v>
       </x:c>
       <x:c r="E13" s="16"/>
       <x:c r="F13" s="16" t="s">
-        <x:v>63</x:v>
+        <x:v>47</x:v>
       </x:c>
       <x:c r="G13" s="16"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A14" s="19"/>
       <x:c r="B14" s="10" t="s">
-        <x:v>77</x:v>
+        <x:v>46</x:v>
       </x:c>
       <x:c r="C14" s="10"/>
       <x:c r="D14" s="10" t="s">
-        <x:v>86</x:v>
+        <x:v>91</x:v>
       </x:c>
       <x:c r="E14" s="10"/>
       <x:c r="F14" s="10"/>
@@ -2106,11 +2137,11 @@
     <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A16" s="19"/>
       <x:c r="B16" s="10" t="s">
-        <x:v>71</x:v>
+        <x:v>52</x:v>
       </x:c>
       <x:c r="C16" s="10"/>
       <x:c r="D16" s="10" t="s">
-        <x:v>40</x:v>
+        <x:v>39</x:v>
       </x:c>
       <x:c r="E16" s="10"/>
       <x:c r="F16" s="10"/>
@@ -2128,11 +2159,11 @@
     <x:row r="18" spans="1:7" ht="55.79999999999999715783" customHeight="1">
       <x:c r="A18" s="19"/>
       <x:c r="B18" s="10" t="s">
-        <x:v>57</x:v>
+        <x:v>67</x:v>
       </x:c>
       <x:c r="C18" s="10"/>
       <x:c r="D18" s="22" t="s">
-        <x:v>2</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="E18" s="10"/>
       <x:c r="F18" s="10"/>
@@ -2150,11 +2181,11 @@
     <x:row r="20" spans="1:7" ht="51.60000000000000142109" customHeight="1">
       <x:c r="A20" s="19"/>
       <x:c r="B20" s="23" t="s">
-        <x:v>37</x:v>
+        <x:v>30</x:v>
       </x:c>
       <x:c r="C20" s="24"/>
-      <x:c r="D20" s="25" t="s">
-        <x:v>26</x:v>
+      <x:c r="D20" s="26" t="s">
+        <x:v>4</x:v>
       </x:c>
       <x:c r="E20" s="24"/>
       <x:c r="F20" s="23"/>
@@ -2176,7 +2207,7 @@
       </x:c>
       <x:c r="C22" s="24"/>
       <x:c r="D22" s="23" t="s">
-        <x:v>10</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="E22" s="24"/>
       <x:c r="F22" s="23"/>
@@ -2211,16 +2242,16 @@
     </x:row>
     <x:row r="26" spans="1:7" ht="239.40000000000000568434" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="B26" s="26" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C26" s="26"/>
-      <x:c r="D26" s="26"/>
-      <x:c r="E26" s="26"/>
-      <x:c r="F26" s="26"/>
-      <x:c r="G26" s="26"/>
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="B26" s="25" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C26" s="25"/>
+      <x:c r="D26" s="25"/>
+      <x:c r="E26" s="25"/>
+      <x:c r="F26" s="25"/>
+      <x:c r="G26" s="25"/>
     </x:row>
     <x:row r="27" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="28" ht="20.10000000000000142109" customHeight="1"/>
@@ -2310,10 +2341,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheetPr codeName="Sheet2"/>
-  <x:dimension ref="B4:H22"/>
+  <x:dimension ref="B4:H36"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <x:selection activeCell="G5" activeCellId="0" sqref="G5:G5"/>
+    <x:sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <x:selection activeCell="C10" activeCellId="0" sqref="C10:C10"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="16.39999999999999857891"/>
@@ -2327,102 +2358,102 @@
   <x:sheetData>
     <x:row r="4" spans="2:7">
       <x:c r="B4" t="s">
-        <x:v>47</x:v>
+        <x:v>81</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
-        <x:v>54</x:v>
+        <x:v>85</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>68</x:v>
+        <x:v>64</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>80</x:v>
+        <x:v>51</x:v>
       </x:c>
       <x:c r="G4" t="s">
-        <x:v>58</x:v>
+        <x:v>69</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:8" ht="318" customHeight="1">
       <x:c r="B5" s="4" t="s">
-        <x:v>78</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>34</x:v>
+        <x:v>27</x:v>
       </x:c>
       <x:c r="G5" s="7" t="s">
-        <x:v>4</x:v>
+        <x:v>7</x:v>
       </x:c>
       <x:c r="H5" s="7" t="s">
-        <x:v>24</x:v>
+        <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:6">
       <x:c r="B6" s="4" t="s">
-        <x:v>44</x:v>
+        <x:v>21</x:v>
       </x:c>
       <x:c r="F6" t="s">
-        <x:v>79</x:v>
+        <x:v>50</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:6">
       <x:c r="B7" s="4"/>
       <x:c r="F7" t="s">
-        <x:v>64</x:v>
+        <x:v>58</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:6">
       <x:c r="B8" s="4" t="s">
-        <x:v>36</x:v>
+        <x:v>29</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>60</x:v>
+        <x:v>66</x:v>
       </x:c>
       <x:c r="F8" t="s">
-        <x:v>70</x:v>
+        <x:v>44</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="65.5">
       <x:c r="B9" s="4" t="s">
-        <x:v>41</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>7</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>15</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="E9" s="4" t="s">
-        <x:v>14</x:v>
+        <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:3" ht="81.84999999999999431566">
       <x:c r="B10" s="4" t="s">
-        <x:v>30</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:4" ht="81.84999999999999431566">
       <x:c r="B11" s="4" t="s">
-        <x:v>85</x:v>
+        <x:v>92</x:v>
       </x:c>
       <x:c r="C11" s="6" t="s">
-        <x:v>13</x:v>
+        <x:v>0</x:v>
       </x:c>
       <x:c r="D11" s="5" t="s">
-        <x:v>38</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:3" ht="98.25">
       <x:c r="B12" s="4" t="s">
-        <x:v>82</x:v>
+        <x:v>89</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>5</x:v>
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:2">
@@ -2430,42 +2461,97 @@
     </x:row>
     <x:row r="14" spans="2:2" ht="32.75">
       <x:c r="B14" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>16</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:2">
       <x:c r="B15" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>34</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:2" ht="32.75">
       <x:c r="B16" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>35</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:2">
       <x:c r="B17" s="4" t="s">
-        <x:v>45</x:v>
+        <x:v>20</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:2" ht="49.14999999999999857891">
       <x:c r="B18" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:2">
       <x:c r="B19" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>77</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:2">
       <x:c r="B20" s="4" t="s">
-        <x:v>22</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:2">
       <x:c r="B22" s="3" t="s">
-        <x:v>39</x:v>
+        <x:v>41</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="2:2">
+      <x:c r="B24" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="25" spans="2:2">
+      <x:c r="B25" t="s">
+        <x:v>93</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="26" spans="2:2" ht="19.30000000000000071054">
+      <x:c r="B26" s="27" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="27" spans="2:2" ht="19.30000000000000071054">
+      <x:c r="B27" s="27"/>
+    </x:row>
+    <x:row r="28" spans="2:2" ht="37.10000000000000142109">
+      <x:c r="B28" s="27" t="s">
+        <x:v>72</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="29" spans="2:2" ht="19.30000000000000071054">
+      <x:c r="B29" s="27"/>
+    </x:row>
+    <x:row r="30" spans="2:2" ht="37.10000000000000142109">
+      <x:c r="B30" s="27" t="s">
+        <x:v>94</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="31" spans="2:2" ht="19.30000000000000071054">
+      <x:c r="B31" s="27"/>
+    </x:row>
+    <x:row r="32" spans="2:2" ht="37.10000000000000142109">
+      <x:c r="B32" s="27" t="s">
+        <x:v>95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="33" spans="2:2" ht="19.30000000000000071054">
+      <x:c r="B33" s="27"/>
+    </x:row>
+    <x:row r="34" spans="2:2" ht="37.10000000000000142109">
+      <x:c r="B34" s="27" t="s">
+        <x:v>73</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="35" spans="2:2" ht="19.30000000000000071054">
+      <x:c r="B35" s="27"/>
+    </x:row>
+    <x:row r="36" spans="2:2" ht="19.30000000000000071054">
+      <x:c r="B36" s="27" t="s">
+        <x:v>3</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/00 포트폴리오/포트폴리오기획서-정재녕(앵글340)-2.xlsx
+++ b/00 포트폴리오/포트폴리오기획서-정재녕(앵글340)-2.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <x:bookViews>
-    <x:workbookView xWindow="0" yWindow="0" windowWidth="30468" windowHeight="12552" activeTab="1"/>
+    <x:workbookView xWindow="0" yWindow="0" windowWidth="30468" windowHeight="12552" activeTab="2"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="포트폴리오 기획서(양식)" sheetId="1" r:id="rId4"/>
@@ -23,26 +23,301 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <x:sst xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="96">
   <x:si>
+    <x:t>지도, 운영시간, 전화번호를 제공해서 방문자가 쉽게 찾아올 수 있게 제공</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">GALLERY </x:t>
+  </x:si>
+  <x:si>
+    <x:t>웹사이트 이미지 반영</x:t>
+  </x:si>
+  <x:si>
+    <x:t>포트폴리오 기획서</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRODUCTS</x:t>
+  </x:si>
+  <x:si>
+    <x:t>을지로 - 낡은 간판, 세월이 스며든 골목길, 공구상점의 요소들을 현대적인 감각으로 반영, 거친 질감의 벽면, 노출 콘크리트 다채로운 컬러의 빈티지 체어 &amp; 조명, 창문을 통해 들어오는 자연광 -&gt; 하나의 전시공간</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청계천이 보이는 세운상가 옆에 위치한 앵글340(angle340) 카페 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>■ 개인 카페 인스타그램 홍보의 한계점,  홈페이지 홍보를 활용해야하는 이유</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.dessert39.com/main.php</x:t>
+  </x:si>
+  <x:si>
+    <x:t>빈티지 오디오 및 포스터 그림으로 다양하게 디자인한 카페 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
+  </x:si>
+  <x:si>
+    <x:t>카페 인테리어, 분위기, 창가자리, 자연광 포인트 소개
+(공간별 사진 슬라이드 및 줌인아웃 효과 + 사진별 간단한 설명 추가)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인플루언서와 같이하는 건강체크</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">카페의 정체성을 명확히 보여주고 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>나에게 맞는 건강관리 여행 시작하기</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">3. 브랜딩과 신뢰도의 문제 </x:t>
+  </x:si>
+  <x:si>
+    <x:t>시그니쳐 디저트 메뉴 UI 화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MY INBODY</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABOUT US</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앵글340 크림라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기획의도(목적)</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">웹페이지를 통한 브랜드 아이덴티티를 부각하고 이미지 선호도를 향상시킨다.
+리디자인을 통해 사용자 친화적이고 접근성이 높은 플랫폼으로 거듭날 수 있도록 구현한다. </x:t>
+  </x:si>
+  <x:si>
+    <x:t>커피 역시 매장 시그니쳐 메뉴인 앵글340 크림라떼 와 청계천라떼 준비했습니다</x:t>
+  </x:si>
+  <x:si>
     <x:t>독창적인 가구 및 오브제, 햇살 가득한 창가자리 -&gt; 따뜻한 나무질감의 바닥, 거친 콘크리트 벽의 조화 및 커다란 화분의 도심속 작은 정원을 연상</x:t>
   </x:si>
   <x:si>
     <x:t>조용하지만 감각적인 느낌의 까페를 찾고 싶어하는 고객 , 을지로의 힙한 감성 카페 타이틀 홍보, 나만 알고 싶은 을지로 핫플레이스로의 이미지 상승</x:t>
   </x:si>
   <x:si>
+    <x:t>콜렉팅한 그림 작품과 세련된 그림이 어우러져 마치 갤러리에 온 듯한 분위기의 카페, 커피를 마시고 대화를 나누거나 사색을 나누기에 넓고 편한공간 벽면에 걸린 감각적인 포스터와 창밖으로 보이는 도심풍경이 어우러지면서 감각적인 경험 가능</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이미지 내용 글자 크기 내용 간격 영역 배경 소스 부분을 전부 고려해서 완성이 중요</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve">1. 웹사이트를 방문하는 사용자에게 브랜드 아이덴티티 강조
+2. 네비게이션 메뉴를 구현하여 사용자에게 가독성있고 정돈된 정보를 전달 
+3. "도심 속 숨겨진 감성 갤러리 카페" 를 컨셉으로 방문 전부터 공간의 무드와 감성을 체험할 수 있게 전달  </x:t>
+  </x:si>
+  <x:si>
+    <x:t>해시태그 검색 -&gt; 노출의 한계점 -&gt; 홈페이지 검색 엔진 최적화(SEO)를 통해 포털사이트의 검색확률을 높이고 지속적인 방문자 유입</x:t>
+  </x:si>
+  <x:si>
+    <x:t xml:space="preserve"> 아늑한 분위기,  감각적인 빈티지 인테리어, 커피와 음악을 함께 하기 좋은 장소라는 컨셉 구축(커피+음악+공간을 같이 즐기는 컨셉)
+ </x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=90094</x:t>
+  </x:si>
+  <x:si>
+    <x:t>http://www.bosa.co.kr/news/articleView.html?idxno=2222508</x:t>
+  </x:si>
+  <x:si>
+    <x:t>도시적 감성 카페, 외벽 아트워크, 빈티지한 분위기 &amp; 거칠면서도 감각적인 인테리어를 반영한 페이지구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://www.enewstoday.co.kr/news/articleView.html?idxno=2153878#:~:text=%ED%95%9C%EA%B5%ADIR%ED%98%91%EC%9D%98%ED%9A%8C%20%EA%B8%B0%EC%97%85%EB%A6%AC%EC%84%9C%EC%B9%98%EC%84%BC%ED%84%B0%EB%8A%94%20%EB%A6%AC%EC%8A%A4%ED%81%AC%20%EC%9A%94%EC%9D%B8%EC%9C%BC%EB%A1%9C%20'%EC%84%B1%EC%9E%A5%EC%84%B1%20%EB%91%94%ED%99%94%EC%97%90%20%EB%8C%80%ED%95%9C,%EC%9A%B0%EB%A0%A4%EA%B0%80%20%EC%9E%88%EC%9C%BC%EB%A9%B0%2C%20%EC%9D%B4%EB%A1%9C%20%EC%9D%B8%ED%95%B4%20%EC%97%85%EA%B3%84%201%EC%9C%84%20%EA%B8%B0%EC%97%85</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청계천 나들이중 잠시 머물다 갈수 있는 좋은곳 입니다</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디란? 인바디 용어 해설</x:t>
+  </x:si>
+  <x:si>
+    <x:t>캐릭터 모양 쿠키 일러화</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BI소개/브랜드 파워 소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.조용하고 아늑한 느낌</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2. 검색 노출의 한계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>디자인 시안 제작시 고려</x:t>
+  </x:si>
+  <x:si>
+    <x:t>앵글340</x:t>
+  </x:si>
+  <x:si>
+    <x:t>바다라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>베이글라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth2</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴 구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참고
+사이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>청계천라떼</x:t>
+  </x:si>
+  <x:si>
+    <x:t>BI소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>참고 사이트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>톤앤매너</x:t>
+  </x:si>
+  <x:si>
+    <x:t>HOME</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ABOUT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>기타 의견</x:t>
+  </x:si>
+  <x:si>
+    <x:t>VISIT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Section</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Header</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SPACE</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth3</x:t>
+  </x:si>
+  <x:si>
+    <x:t>회사소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Depth1</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메뉴구축</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 디저트</x:t>
+  </x:si>
+  <x:si>
+    <x:t>메인화면
+구성</x:t>
+  </x:si>
+  <x:si>
     <x:t>안녕하세요</x:t>
   </x:si>
   <x:si>
-    <x:t>청계천 나들이중 잠시 머물다 갈수 있는 좋은곳 입니다</x:t>
+    <x:t>MENU</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Footer</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원두소개</x:t>
+  </x:si>
+  <x:si>
+    <x:t>원두보관함,철제선반,조명 빈티지 가스레인지&amp;오븐 등등(오븐은 지금 수납공갑으로 쓰고 있답니다😳) 곳곳에 다양하게 인테리어 했습니다. 아 참!저희는 메뉴판도 스틸이랍니다!
+저희 앵글340은 을지로의 빈티지한 감성을 그대로 살린 거친 벽면과 을지로 특색을 살리고 싶어서 스틸을 전체적으로 사용하여 통일감을 주었습니다.
+전체적인 매장의 인테리어컨셉은 미드센츄리 모던 스타일로 꾸며 보았습니다 .빈티지한 감성을 그대로 살려 매장의 모든 가구와 조명들은 전부 오리지널 제품들로 꾸며져있습니다.
+저희 카페 앵글 340에서
+커피와 함께 공간도 같이 즐겨주세요.</x:t>
+  </x:si>
+  <x:si>
+    <x:t>의료분야가 치료 중심에서 예방‧관리 중심으로 패러다임이 변화 -&gt; 건강관리에 있어 ‘체성분 분석기기’ 의 중요성이 더 강화 전망
+디지털 헬스케어, 의료시스템, 정밀의료 기술 등의 발전 및 만성질환 관리 강화의 중요성이 대두 -&gt; 질병 치료 중심에서 사전 진단, 예방을 비롯한 맞춤형 건강관리 서비스가 주목받고 있는 추세
+현재 인바디 웹사이트는 전문가용 기기 중심의 정보와 이미지가 주 -&gt;  전문적이나 거리감, 경직된 느낌 전달 
+청년층과 중장년층을 주요 타겟으로 설정 -&gt; 건강관리 관심도 증가에 발맞춰, 연령대별 맞춤 콘텐츠 및 UX 제공, 쉽게 접근할 수 있게 구성
+개인용 제품이 전문가용 기기에 비해 상대적으로 매출이 낮은 원인을 고려 -&gt;  소비자들이 가정에서도 손쉽고 편리하게 사용할 수 있는 제품이라는 점을 직관적으로 인식할 수 있도록 웹페이지의 콘텐츠 구성과 디자인을 개선
+청년층에겐 나에게 맞는 건강 관리 같은 서비스 구성, 중장년층에겐 사전 진단, 질병 예방 -&gt; 연령별 맞춤 콘텐츠 구성
+웹사이트 전체의 레이아웃과 시각적 요소를 안정적이고 신뢰감 있는 브랜드 이미지를 전달할 수 있도록 리디자인 -&gt; 사용자 진입 후 개인용 제품 탐색 비율 증가를 목표</x:t>
   </x:si>
   <x:si>
     <x:t xml:space="preserve">카페에 전시된 그림, 포스터, 오브제 체험
 (사진 슬라이드 및 줌인아웃 효과 + 사진별 간단한 설명 추가) </x:t>
   </x:si>
   <x:si>
-    <x:t>디자인 시안 제작시 고려</x:t>
-  </x:si>
-  <x:si>
-    <x:t>을지로 - 낡은 간판, 세월이 스며든 골목길, 공구상점의 요소들을 현대적인 감각으로 반영, 거친 질감의 벽면, 노출 콘크리트 다채로운 컬러의 빈티지 체어 &amp; 조명, 창문을 통해 들어오는 자연광 -&gt; 하나의 전시공간</x:t>
+    <x:t>카드형 메뉴 소개 레이아웃(클릭 시 호버 기능으로 상세 확인 기능)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://bwissue.com/cafeinfo/1856703</x:t>
+  </x:si>
+  <x:si>
+    <x:t>저희 매장은 미드센츄리 제품의 가구로 매장을 디자인 했으며 각종 소품과</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://collabospace.kr/space/angle340/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1. 정보의 한계</x:t>
+  </x:si>
+  <x:si>
+    <x:t>2.감각적인 인테리어</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디 철학/연혁</x:t>
+  </x:si>
+  <x:si>
+    <x:t>이름</x:t>
+  </x:si>
+  <x:si>
+    <x:t>개인용</x:t>
+  </x:si>
+  <x:si>
+    <x:t>제출일</x:t>
+  </x:si>
+  <x:si>
+    <x:t>주제</x:t>
+  </x:si>
+  <x:si>
+    <x:t>인바디</x:t>
+  </x:si>
+  <x:si>
+    <x:t>과정명</x:t>
+  </x:si>
+  <x:si>
+    <x:t>구성</x:t>
+  </x:si>
+  <x:si>
+    <x:t>비고</x:t>
+  </x:si>
+  <x:si>
+    <x:t>정재녕</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://blog.naver.com/reading_mindset/223827060245</x:t>
+  </x:si>
+  <x:si>
+    <x:t>영업시간, 메뉴, 이벤트 등 중요한 정보들을 찾기위한 고객의  불필요한 시간낭비 줄이기</x:t>
+  </x:si>
+  <x:si>
+    <x:t>4. 갤러리에 온듯 한 분위기의 카페</x:t>
+  </x:si>
+  <x:si>
+    <x:t>맞춤 건강 솔루션/사전 진단, 질병예방</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://cmlandco.kr/</x:t>
+  </x:si>
+  <x:si>
+    <x:t>https://coffee9.co.kr/</x:t>
   </x:si>
   <x:si>
     <x:t>1. Blend
@@ -59,285 +334,10 @@
 초콜릿과 카라멜의 고소함과 사과의 상큼함이 밸런스있고 부드러운 디카페인 원두입니다.</x:t>
   </x:si>
   <x:si>
-    <x:t>원두보관함,철제선반,조명 빈티지 가스레인지&amp;오븐 등등(오븐은 지금 수납공갑으로 쓰고 있답니다😳) 곳곳에 다양하게 인테리어 했습니다. 아 참!저희는 메뉴판도 스틸이랍니다!
-저희 앵글340은 을지로의 빈티지한 감성을 그대로 살린 거친 벽면과 을지로 특색을 살리고 싶어서 스틸을 전체적으로 사용하여 통일감을 주었습니다.
-전체적인 매장의 인테리어컨셉은 미드센츄리 모던 스타일로 꾸며 보았습니다 .빈티지한 감성을 그대로 살려 매장의 모든 가구와 조명들은 전부 오리지널 제품들로 꾸며져있습니다.
-저희 카페 앵글 340에서
-커피와 함께 공간도 같이 즐겨주세요.</x:t>
-  </x:si>
-  <x:si>
-    <x:t>콜렉팅한 그림 작품과 세련된 그림이 어우러져 마치 갤러리에 온 듯한 분위기의 카페, 커피를 마시고 대화를 나누거나 사색을 나누기에 넓고 편한공간 벽면에 걸린 감각적인 포스터와 창밖으로 보이는 도심풍경이 어우러지면서 감각적인 경험 가능</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">웹페이지를 통한 브랜드 아이덴티티를 부각하고 이미지 선호도를 향상시킨다.
-리디자인을 통해 사용자 친화적이고 접근성이 높은 플랫폼으로 거듭날 수 있도록 구현한다. </x:t>
-  </x:si>
-  <x:si>
-    <x:t>http://www.bosa.co.kr/news/articleView.html?idxno=2222508</x:t>
-  </x:si>
-  <x:si>
-    <x:t>도시적 감성 카페, 외벽 아트워크, 빈티지한 분위기 &amp; 거칠면서도 감각적인 인테리어를 반영한 페이지구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.epnc.co.kr/news/articleView.html?idxno=90094</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> 아늑한 분위기,  감각적인 빈티지 인테리어, 커피와 음악을 함께 하기 좋은 장소라는 컨셉 구축(커피+음악+공간을 같이 즐기는 컨셉)
- </x:t>
-  </x:si>
-  <x:si>
-    <x:t>해시태그 검색 -&gt; 노출의 한계점 -&gt; 홈페이지 검색 엔진 최적화(SEO)를 통해 포털사이트의 검색확률을 높이고 지속적인 방문자 유입</x:t>
-  </x:si>
-  <x:si>
-    <x:t>■ 개인 카페 인스타그램 홍보의 한계점,  홈페이지 홍보를 활용해야하는 이유</x:t>
-  </x:si>
-  <x:si>
-    <x:t>지도, 운영시간, 전화번호를 제공해서 방문자가 쉽게 찾아올 수 있게 제공</x:t>
-  </x:si>
-  <x:si>
-    <x:t>의료분야가 치료 중심에서 예방‧관리 중심으로 패러다임이 변화 -&gt; 건강관리에 있어 ‘체성분 분석기기’ 의 중요성이 더 강화 전망
-디지털 헬스케어, 의료시스템, 정밀의료 기술 등의 발전 및 만성질환 관리 강화의 중요성이 대두 -&gt; 질병 치료 중심에서 사전 진단, 예방을 비롯한 맞춤형 건강관리 서비스가 주목받고 있는 추세
-현재 인바디 웹사이트는 전문가용 기기 중심의 정보와 이미지가 주 -&gt;  전문적이나 거리감, 경직된 느낌 전달 
-청년층과 중장년층을 주요 타겟으로 설정 -&gt; 건강관리 관심도 증가에 발맞춰, 연령대별 맞춤 콘텐츠 및 UX 제공, 쉽게 접근할 수 있게 구성
-개인용 제품이 전문가용 기기에 비해 상대적으로 매출이 낮은 원인을 고려 -&gt;  소비자들이 가정에서도 손쉽고 편리하게 사용할 수 있는 제품이라는 점을 직관적으로 인식할 수 있도록 웹페이지의 콘텐츠 구성과 디자인을 개선
-청년층에겐 나에게 맞는 건강 관리 같은 서비스 구성, 중장년층에겐 사전 진단, 질병 예방 -&gt; 연령별 맞춤 콘텐츠 구성
-웹사이트 전체의 레이아웃과 시각적 요소를 안정적이고 신뢰감 있는 브랜드 이미지를 전달할 수 있도록 리디자인 -&gt; 사용자 진입 후 개인용 제품 탐색 비율 증가를 목표</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BI소개/브랜드 파워 소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2. 검색 노출의 한계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>캐릭터 모양 쿠키 일러화</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디란? 인바디 용어 해설</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1.조용하고 아늑한 느낌</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABOUT US</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기획의도(목적)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MY INBODY</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앵글340 크림라떼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>포트폴리오 기획서</x:t>
-  </x:si>
-  <x:si>
-    <x:t>웹사이트 이미지 반영</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">GALLERY </x:t>
-  </x:si>
-  <x:si>
-    <x:t>PRODUCTS</x:t>
-  </x:si>
-  <x:si>
-    <x:t>2.감각적인 인테리어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디 철학/연혁</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 정보의 한계</x:t>
-  </x:si>
-  <x:si>
-    <x:t>영업시간, 메뉴, 이벤트 등 중요한 정보들을 찾기위한 고객의  불필요한 시간낭비 줄이기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://blog.naver.com/reading_mindset/223827060245</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">1. 웹사이트를 방문하는 사용자에게 브랜드 아이덴티티 강조
-2. 네비게이션 메뉴를 구현하여 사용자에게 가독성있고 정돈된 정보를 전달 
-3. "도심 속 숨겨진 감성 갤러리 카페" 를 컨셉으로 방문 전부터 공간의 무드와 감성을 체험할 수 있게 전달  </x:t>
-  </x:si>
-  <x:si>
-    <x:t>카페 인테리어, 분위기, 창가자리, 자연광 포인트 소개
-(공간별 사진 슬라이드 및 줌인아웃 효과 + 사진별 간단한 설명 추가)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>카드형 메뉴 소개 레이아웃(클릭 시 호버 기능으로 상세 확인 기능)</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://collabospace.kr/space/angle340/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://bwissue.com/cafeinfo/1856703</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인플루언서와 같이하는 건강체크</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">카페의 정체성을 명확히 보여주고 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>베이글라떼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth1</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ABOUT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth3</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메인화면
-구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1. 디저트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청계천라떼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴구축</x:t>
-  </x:si>
-  <x:si>
-    <x:t>MENU</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Depth2</x:t>
-  </x:si>
-  <x:si>
-    <x:t>앵글340</x:t>
-  </x:si>
-  <x:si>
-    <x:t>메뉴 구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>VISIT</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Header</x:t>
-  </x:si>
-  <x:si>
-    <x:t>바다라떼</x:t>
-  </x:si>
-  <x:si>
-    <x:t>BI소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>기타 의견</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Section</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참고
-사이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>HOME</x:t>
-  </x:si>
-  <x:si>
-    <x:t>참고 사이트</x:t>
-  </x:si>
-  <x:si>
-    <x:t>회사소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>톤앤매너</x:t>
-  </x:si>
-  <x:si>
-    <x:t>SPACE</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Footer</x:t>
-  </x:si>
-  <x:si>
-    <x:t>원두소개</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.dessert39.com/main.php</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve"> UI/UX 반응형 웹디자인&amp;웹퍼블리셔(디자인&amp;코딩) 양성 01</x:t>
-  </x:si>
-  <x:si>
-    <x:t>청계천이 보이는 세운상가 옆에 위치한 앵글340(angle340) 카페 입니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>커피 역시 매장 시그니쳐 메뉴인 앵글340 크림라떼 와 청계천라떼 준비했습니다</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://www.enewstoday.co.kr/news/articleView.html?idxno=2153878#:~:text=%ED%95%9C%EA%B5%ADIR%ED%98%91%EC%9D%98%ED%9A%8C%20%EA%B8%B0%EC%97%85%EB%A6%AC%EC%84%9C%EC%B9%98%EC%84%BC%ED%84%B0%EB%8A%94%20%EB%A6%AC%EC%8A%A4%ED%81%AC%20%EC%9A%94%EC%9D%B8%EC%9C%BC%EB%A1%9C%20'%EC%84%B1%EC%9E%A5%EC%84%B1%20%EB%91%94%ED%99%94%EC%97%90%20%EB%8C%80%ED%95%9C,%EC%9A%B0%EB%A0%A4%EA%B0%80%20%EC%9E%88%EC%9C%BC%EB%A9%B0%2C%20%EC%9D%B4%EB%A1%9C%20%EC%9D%B8%ED%95%B4%20%EC%97%85%EA%B3%84%201%EC%9C%84%20%EA%B8%B0%EC%97%85</x:t>
-  </x:si>
-  <x:si>
-    <x:t>나에게 맞는 건강관리 여행 시작하기</x:t>
-  </x:si>
-  <x:si>
-    <x:t>시그니쳐 디저트 메뉴 UI 화</x:t>
-  </x:si>
-  <x:si>
-    <x:t xml:space="preserve">3. 브랜딩과 신뢰도의 문제 </x:t>
-  </x:si>
-  <x:si>
-    <x:t>개인용</x:t>
-  </x:si>
-  <x:si>
-    <x:t>제출일</x:t>
-  </x:si>
-  <x:si>
-    <x:t>과정명</x:t>
-  </x:si>
-  <x:si>
-    <x:t>구성</x:t>
-  </x:si>
-  <x:si>
-    <x:t>인바디</x:t>
-  </x:si>
-  <x:si>
-    <x:t>정재녕</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이름</x:t>
-  </x:si>
-  <x:si>
-    <x:t>비고</x:t>
-  </x:si>
-  <x:si>
-    <x:t>주제</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://coffee9.co.kr/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>https://cmlandco.kr/</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4. 갤러리에 온듯 한 분위기의 카페</x:t>
-  </x:si>
-  <x:si>
-    <x:t>맞춤 건강 솔루션/사전 진단, 질병예방</x:t>
-  </x:si>
-  <x:si>
     <x:t>전체적인 내부 전경 이미지와 카페 분위기 설명</x:t>
   </x:si>
   <x:si>
     <x:t>3.다양한 오리지널 빈티지 조명 및 인테리어</x:t>
-  </x:si>
-  <x:si>
-    <x:t>이미지 내용 글자 크기 내용 간격 영역 배경 소스 부분을 전부 고려해서 완성이 중요</x:t>
-  </x:si>
-  <x:si>
-    <x:t>저희 매장은 미드센츄리 제품의 가구로 매장을 디자인 했으며 각종 소품과</x:t>
-  </x:si>
-  <x:si>
-    <x:t>빈티지 오디오 및 포스터 그림으로 다양하게 디자인한 카페 입니다</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -401,6 +401,26 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:font hs:extension="1">
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff334155"/>
+          <hs:size val="100"/>
+          <hs:ratio val="100"/>
+          <hs:spacing val="0"/>
+          <hs:offset val="0"/>
+        </x:font>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:font>
+          <x:name val="맑은 고딕"/>
+          <x:sz val="12"/>
+          <x:color rgb="ff334155"/>
+        </x:font>
+      </mc:Fallback>
+    </mc:AlternateContent>
     <x:font>
       <x:name val="맑은 고딕"/>
       <x:sz val="14"/>
@@ -455,26 +475,6 @@
         </x:font>
       </mc:Fallback>
     </mc:AlternateContent>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:font hs:extension="1">
-          <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff334155"/>
-          <hs:size val="100"/>
-          <hs:ratio val="100"/>
-          <hs:spacing val="0"/>
-          <hs:offset val="0"/>
-        </x:font>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:font>
-          <x:name val="맑은 고딕"/>
-          <x:sz val="12"/>
-          <x:color rgb="ff334155"/>
-        </x:font>
-      </mc:Fallback>
-    </mc:AlternateContent>
   </x:fonts>
   <x:fills count="4">
     <x:fill>
@@ -523,6 +523,20 @@
       </x:top>
       <x:bottom style="thin">
         <x:color rgb="ffa6a6a6"/>
+      </x:bottom>
+    </x:border>
+    <x:border>
+      <x:left style="thick">
+        <x:color rgb="ffe5e7eb"/>
+      </x:left>
+      <x:right style="thick">
+        <x:color rgb="ffe5e7eb"/>
+      </x:right>
+      <x:top style="thick">
+        <x:color rgb="ffe5e7eb"/>
+      </x:top>
+      <x:bottom style="thick">
+        <x:color rgb="ffe5e7eb"/>
       </x:bottom>
     </x:border>
     <x:border>
@@ -595,20 +609,6 @@
         <x:color auto="1"/>
       </x:bottom>
     </x:border>
-    <x:border>
-      <x:left style="thick">
-        <x:color rgb="ffe5e7eb"/>
-      </x:left>
-      <x:right style="thick">
-        <x:color rgb="ffe5e7eb"/>
-      </x:right>
-      <x:top style="thick">
-        <x:color rgb="ffe5e7eb"/>
-      </x:top>
-      <x:bottom style="thick">
-        <x:color rgb="ffe5e7eb"/>
-      </x:bottom>
-    </x:border>
   </x:borders>
   <x:cellStyleXfs count="2">
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -653,15 +653,18 @@
     <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <x:alignment horizontal="general" vertical="center" wrapText="1"/>
     </x:xf>
+    <x:xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
+    </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -695,13 +698,13 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
-    <x:xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -730,22 +733,9 @@
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center"/>
     </x:xf>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
-          <x:alignment horizontal="center" vertical="center"/>
-          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
-        </x:xf>
-      </mc:Choice>
-      <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-          <x:alignment horizontal="center" vertical="center"/>
-        </x:xf>
-      </mc:Fallback>
-    </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
         <x:xf numFmtId="0" fontId="6" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
@@ -761,26 +751,39 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+          <x:alignment horizontal="center" vertical="center"/>
+        </x:xf>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1" hs:applyExtension="1">
+          <x:alignment horizontal="center" vertical="center"/>
+          <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
+        </x:xf>
+      </mc:Choice>
+      <mc:Fallback>
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
@@ -800,49 +803,46 @@
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <x:xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <x:alignment horizontal="left" vertical="center" wrapText="1"/>
     </x:xf>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:hs="http://schemas.haansoft.com/office/spreadsheet/8.0" Requires="hs">
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" hs:applyExtension="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
           <hs:parashape hs:lineSpacingType="betweenLines" hs:lineSpacing="75" hs:breakNonLatinWord="breakWord" hs:breakLatinWord="keepWord" hs:condense="0" hs:textAlignment="baseLine"/>
         </x:xf>
       </mc:Choice>
       <mc:Fallback>
-        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+        <x:xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
           <x:alignment horizontal="center" vertical="center" wrapText="1"/>
         </x:xf>
       </mc:Fallback>
     </mc:AlternateContent>
-    <x:xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <x:alignment horizontal="left" vertical="center" wrapText="1"/>
-    </x:xf>
   </x:cellXfs>
   <x:cellStyles count="2">
     <x:cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -853,6 +853,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -935,6 +936,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -969,6 +971,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1013,6 +1016,7 @@
           <x:font hs:extension="1">
             <x:color rgb="ffffffff"/>
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1056,6 +1060,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:color rgb="ff000000"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1140,6 +1145,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1160,6 +1166,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1190,6 +1197,7 @@
         <x:dxf hs:applyExtension="1">
           <x:font hs:extension="1">
             <x:b val="1"/>
+            <hs:useFontSpace val="0"/>
             <hs:size val="0"/>
             <hs:ratio val="0"/>
             <hs:spacing val="0"/>
@@ -1551,304 +1559,304 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="39.95000000000000284217" customHeight="1">
-      <x:c r="A1" s="8" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B1" s="8"/>
-      <x:c r="C1" s="8"/>
-      <x:c r="D1" s="8"/>
-      <x:c r="E1" s="8"/>
-      <x:c r="F1" s="8"/>
-      <x:c r="G1" s="8"/>
+      <x:c r="A1" s="9" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="9"/>
+      <x:c r="C1" s="9"/>
+      <x:c r="D1" s="9"/>
+      <x:c r="E1" s="9"/>
+      <x:c r="F1" s="9"/>
+      <x:c r="G1" s="9"/>
     </x:row>
     <x:row r="2" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="3" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B3" s="9" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C3" s="9"/>
-      <x:c r="D3" s="9"/>
-      <x:c r="E3" s="9"/>
-      <x:c r="F3" s="9"/>
-      <x:c r="G3" s="9"/>
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B3" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="10"/>
+      <x:c r="D3" s="10"/>
+      <x:c r="E3" s="10"/>
+      <x:c r="F3" s="10"/>
+      <x:c r="G3" s="10"/>
     </x:row>
     <x:row r="4" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B4" s="10" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C4" s="10"/>
-      <x:c r="D4" s="10"/>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B4" s="11" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C4" s="11"/>
+      <x:c r="D4" s="11"/>
       <x:c r="E4" s="1" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F4" s="11">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F4" s="12">
         <x:v>45765</x:v>
       </x:c>
-      <x:c r="G4" s="10"/>
+      <x:c r="G4" s="11"/>
     </x:row>
     <x:row r="5" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A5" s="1" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B5" s="9" t="s">
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B5" s="10" t="s">
         <x:v>82</x:v>
       </x:c>
-      <x:c r="C5" s="9"/>
-      <x:c r="D5" s="9"/>
-      <x:c r="E5" s="9"/>
-      <x:c r="F5" s="9"/>
-      <x:c r="G5" s="9"/>
+      <x:c r="C5" s="10"/>
+      <x:c r="D5" s="10"/>
+      <x:c r="E5" s="10"/>
+      <x:c r="F5" s="10"/>
+      <x:c r="G5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="61.79999999999999715783" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B6" s="12" t="s">
-        <x:v>10</x:v>
-      </x:c>
-      <x:c r="C6" s="13"/>
-      <x:c r="D6" s="13"/>
-      <x:c r="E6" s="13"/>
-      <x:c r="F6" s="13"/>
-      <x:c r="G6" s="14"/>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B6" s="13" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C6" s="14"/>
+      <x:c r="D6" s="14"/>
+      <x:c r="E6" s="14"/>
+      <x:c r="F6" s="14"/>
+      <x:c r="G6" s="15"/>
     </x:row>
     <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A7" s="15" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B7" s="17" t="s">
-        <x:v>11</x:v>
-      </x:c>
-      <x:c r="C7" s="17"/>
-      <x:c r="D7" s="17"/>
-      <x:c r="E7" s="17"/>
-      <x:c r="F7" s="17"/>
-      <x:c r="G7" s="17"/>
+      <x:c r="A7" s="16" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B7" s="18" t="s">
+        <x:v>31</x:v>
+      </x:c>
+      <x:c r="C7" s="18"/>
+      <x:c r="D7" s="18"/>
+      <x:c r="E7" s="18"/>
+      <x:c r="F7" s="18"/>
+      <x:c r="G7" s="18"/>
     </x:row>
     <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A8" s="16"/>
-      <x:c r="B8" s="17" t="s">
-        <x:v>74</x:v>
-      </x:c>
-      <x:c r="C8" s="17"/>
-      <x:c r="D8" s="17"/>
-      <x:c r="E8" s="17"/>
-      <x:c r="F8" s="17"/>
-      <x:c r="G8" s="17"/>
+      <x:c r="A8" s="17"/>
+      <x:c r="B8" s="18" t="s">
+        <x:v>33</x:v>
+      </x:c>
+      <x:c r="C8" s="18"/>
+      <x:c r="D8" s="18"/>
+      <x:c r="E8" s="18"/>
+      <x:c r="F8" s="18"/>
+      <x:c r="G8" s="18"/>
     </x:row>
     <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A9" s="16"/>
-      <x:c r="B9" s="17" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="C9" s="17"/>
-      <x:c r="D9" s="17"/>
-      <x:c r="E9" s="17"/>
-      <x:c r="F9" s="17"/>
-      <x:c r="G9" s="17"/>
+      <x:c r="A9" s="17"/>
+      <x:c r="B9" s="18" t="s">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="C9" s="18"/>
+      <x:c r="D9" s="18"/>
+      <x:c r="E9" s="18"/>
+      <x:c r="F9" s="18"/>
+      <x:c r="G9" s="18"/>
     </x:row>
     <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
-      <x:c r="A10" s="15" t="s">
-        <x:v>48</x:v>
+      <x:c r="A10" s="16" t="s">
+        <x:v>63</x:v>
       </x:c>
       <x:c r="B10" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C10" s="10"/>
-      <x:c r="D10" s="10"/>
-      <x:c r="E10" s="10"/>
-      <x:c r="F10" s="10"/>
-      <x:c r="G10" s="10"/>
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C10" s="11"/>
+      <x:c r="D10" s="11"/>
+      <x:c r="E10" s="11"/>
+      <x:c r="F10" s="11"/>
+      <x:c r="G10" s="11"/>
     </x:row>
     <x:row r="11" spans="1:7" ht="120" customHeight="1">
-      <x:c r="A11" s="16"/>
+      <x:c r="A11" s="17"/>
       <x:c r="B11" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C11" s="10" t="s">
-        <x:v>19</x:v>
-      </x:c>
-      <x:c r="D11" s="10"/>
-      <x:c r="E11" s="10"/>
-      <x:c r="F11" s="10"/>
-      <x:c r="G11" s="10"/>
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C11" s="11" t="s">
+        <x:v>37</x:v>
+      </x:c>
+      <x:c r="D11" s="11"/>
+      <x:c r="E11" s="11"/>
+      <x:c r="F11" s="11"/>
+      <x:c r="G11" s="11"/>
     </x:row>
     <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
-      <x:c r="A12" s="16"/>
+      <x:c r="A12" s="17"/>
       <x:c r="B12" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C12" s="10"/>
-      <x:c r="D12" s="10"/>
-      <x:c r="E12" s="10"/>
-      <x:c r="F12" s="10"/>
-      <x:c r="G12" s="10"/>
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C12" s="11"/>
+      <x:c r="D12" s="11"/>
+      <x:c r="E12" s="11"/>
+      <x:c r="F12" s="11"/>
+      <x:c r="G12" s="11"/>
     </x:row>
     <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A13" s="18" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B13" s="16" t="s">
+      <x:c r="A13" s="19" t="s">
         <x:v>45</x:v>
       </x:c>
-      <x:c r="C13" s="16"/>
-      <x:c r="D13" s="16" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E13" s="16"/>
-      <x:c r="F13" s="16" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G13" s="16"/>
+      <x:c r="B13" s="17" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C13" s="17"/>
+      <x:c r="D13" s="17" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E13" s="17"/>
+      <x:c r="F13" s="17" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G13" s="17"/>
     </x:row>
     <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A14" s="19"/>
-      <x:c r="B14" s="10" t="s">
-        <x:v>24</x:v>
-      </x:c>
-      <x:c r="C14" s="10"/>
-      <x:c r="D14" s="10"/>
-      <x:c r="E14" s="10"/>
-      <x:c r="F14" s="10"/>
-      <x:c r="G14" s="10"/>
+      <x:c r="A14" s="20"/>
+      <x:c r="B14" s="11" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C14" s="11"/>
+      <x:c r="D14" s="11"/>
+      <x:c r="E14" s="11"/>
+      <x:c r="F14" s="11"/>
+      <x:c r="G14" s="11"/>
     </x:row>
     <x:row r="15" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A15" s="18"/>
-      <x:c r="B15" s="20"/>
-      <x:c r="C15" s="21"/>
-      <x:c r="D15" s="20"/>
-      <x:c r="E15" s="21"/>
-      <x:c r="F15" s="20"/>
-      <x:c r="G15" s="21"/>
+      <x:c r="A15" s="19"/>
+      <x:c r="B15" s="21"/>
+      <x:c r="C15" s="22"/>
+      <x:c r="D15" s="21"/>
+      <x:c r="E15" s="22"/>
+      <x:c r="F15" s="21"/>
+      <x:c r="G15" s="22"/>
     </x:row>
     <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A16" s="19"/>
-      <x:c r="B16" s="10" t="s">
-        <x:v>31</x:v>
-      </x:c>
-      <x:c r="C16" s="10"/>
-      <x:c r="D16" s="10" t="s">
-        <x:v>63</x:v>
-      </x:c>
-      <x:c r="E16" s="10"/>
-      <x:c r="F16" s="10"/>
-      <x:c r="G16" s="10"/>
+      <x:c r="A16" s="20"/>
+      <x:c r="B16" s="11" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C16" s="11"/>
+      <x:c r="D16" s="11" t="s">
+        <x:v>51</x:v>
+      </x:c>
+      <x:c r="E16" s="11"/>
+      <x:c r="F16" s="11"/>
+      <x:c r="G16" s="11"/>
     </x:row>
     <x:row r="17" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A17" s="19"/>
-      <x:c r="B17" s="10"/>
-      <x:c r="C17" s="10"/>
-      <x:c r="D17" s="10" t="s">
-        <x:v>78</x:v>
-      </x:c>
-      <x:c r="E17" s="10"/>
-      <x:c r="F17" s="10"/>
-      <x:c r="G17" s="10"/>
+      <x:c r="A17" s="20"/>
+      <x:c r="B17" s="11"/>
+      <x:c r="C17" s="11"/>
+      <x:c r="D17" s="11" t="s">
+        <x:v>79</x:v>
+      </x:c>
+      <x:c r="E17" s="11"/>
+      <x:c r="F17" s="11"/>
+      <x:c r="G17" s="11"/>
     </x:row>
     <x:row r="18" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A18" s="19"/>
-      <x:c r="B18" s="10"/>
-      <x:c r="C18" s="10"/>
-      <x:c r="D18" s="10"/>
-      <x:c r="E18" s="10"/>
-      <x:c r="F18" s="10"/>
-      <x:c r="G18" s="10"/>
+      <x:c r="A18" s="20"/>
+      <x:c r="B18" s="11"/>
+      <x:c r="C18" s="11"/>
+      <x:c r="D18" s="11"/>
+      <x:c r="E18" s="11"/>
+      <x:c r="F18" s="11"/>
+      <x:c r="G18" s="11"/>
     </x:row>
     <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A19" s="19"/>
-      <x:c r="B19" s="10" t="s">
-        <x:v>26</x:v>
-      </x:c>
-      <x:c r="C19" s="10"/>
-      <x:c r="D19" s="22" t="s">
+      <x:c r="A19" s="20"/>
+      <x:c r="B19" s="11" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="C19" s="11"/>
+      <x:c r="D19" s="23" t="s">
         <x:v>90</x:v>
       </x:c>
-      <x:c r="E19" s="10"/>
-      <x:c r="F19" s="10"/>
-      <x:c r="G19" s="10"/>
+      <x:c r="E19" s="11"/>
+      <x:c r="F19" s="11"/>
+      <x:c r="G19" s="11"/>
     </x:row>
     <x:row r="20" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A20" s="19"/>
-      <x:c r="B20" s="10"/>
-      <x:c r="C20" s="10"/>
-      <x:c r="D20" s="23" t="s">
-        <x:v>42</x:v>
-      </x:c>
-      <x:c r="E20" s="24"/>
-      <x:c r="F20" s="23"/>
-      <x:c r="G20" s="24"/>
+      <x:c r="A20" s="20"/>
+      <x:c r="B20" s="11"/>
+      <x:c r="C20" s="11"/>
+      <x:c r="D20" s="24" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="E20" s="25"/>
+      <x:c r="F20" s="24"/>
+      <x:c r="G20" s="25"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A21" s="18"/>
-      <x:c r="B21" s="20"/>
-      <x:c r="C21" s="21"/>
-      <x:c r="D21" s="20"/>
-      <x:c r="E21" s="21"/>
-      <x:c r="F21" s="20"/>
-      <x:c r="G21" s="21"/>
+      <x:c r="A21" s="19"/>
+      <x:c r="B21" s="21"/>
+      <x:c r="C21" s="22"/>
+      <x:c r="D21" s="21"/>
+      <x:c r="E21" s="22"/>
+      <x:c r="F21" s="21"/>
+      <x:c r="G21" s="22"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A22" s="19"/>
-      <x:c r="B22" s="23"/>
-      <x:c r="C22" s="24"/>
-      <x:c r="D22" s="23" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="E22" s="24"/>
-      <x:c r="F22" s="23"/>
-      <x:c r="G22" s="24"/>
+      <x:c r="A22" s="20"/>
+      <x:c r="B22" s="24"/>
+      <x:c r="C22" s="25"/>
+      <x:c r="D22" s="24" t="s">
+        <x:v>35</x:v>
+      </x:c>
+      <x:c r="E22" s="25"/>
+      <x:c r="F22" s="24"/>
+      <x:c r="G22" s="25"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A23" s="19"/>
-      <x:c r="B23" s="23"/>
-      <x:c r="C23" s="24"/>
-      <x:c r="D23" s="23" t="s">
-        <x:v>75</x:v>
-      </x:c>
-      <x:c r="E23" s="24"/>
-      <x:c r="F23" s="23"/>
-      <x:c r="G23" s="24"/>
+      <x:c r="A23" s="20"/>
+      <x:c r="B23" s="24"/>
+      <x:c r="C23" s="25"/>
+      <x:c r="D23" s="24" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="E23" s="25"/>
+      <x:c r="F23" s="24"/>
+      <x:c r="G23" s="25"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A24" s="18"/>
-      <x:c r="B24" s="20"/>
-      <x:c r="C24" s="21"/>
-      <x:c r="D24" s="20"/>
-      <x:c r="E24" s="21"/>
-      <x:c r="F24" s="20"/>
-      <x:c r="G24" s="21"/>
+      <x:c r="A24" s="19"/>
+      <x:c r="B24" s="21"/>
+      <x:c r="C24" s="22"/>
+      <x:c r="D24" s="21"/>
+      <x:c r="E24" s="22"/>
+      <x:c r="F24" s="21"/>
+      <x:c r="G24" s="22"/>
     </x:row>
     <x:row r="25" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A25" s="19"/>
-      <x:c r="B25" s="20" t="s">
-        <x:v>65</x:v>
-      </x:c>
-      <x:c r="C25" s="21"/>
-      <x:c r="D25" s="20" t="s">
-        <x:v>33</x:v>
-      </x:c>
-      <x:c r="E25" s="21"/>
-      <x:c r="F25" s="20"/>
-      <x:c r="G25" s="21"/>
+      <x:c r="A25" s="20"/>
+      <x:c r="B25" s="21" t="s">
+        <x:v>59</x:v>
+      </x:c>
+      <x:c r="C25" s="22"/>
+      <x:c r="D25" s="21" t="s">
+        <x:v>77</x:v>
+      </x:c>
+      <x:c r="E25" s="22"/>
+      <x:c r="F25" s="21"/>
+      <x:c r="G25" s="22"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="239.40000000000000568434" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B26" s="25" t="s">
-        <x:v>18</x:v>
-      </x:c>
-      <x:c r="C26" s="25"/>
-      <x:c r="D26" s="25"/>
-      <x:c r="E26" s="25"/>
-      <x:c r="F26" s="25"/>
-      <x:c r="G26" s="25"/>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B26" s="26" t="s">
+        <x:v>69</x:v>
+      </x:c>
+      <x:c r="C26" s="26"/>
+      <x:c r="D26" s="26"/>
+      <x:c r="E26" s="26"/>
+      <x:c r="F26" s="26"/>
+      <x:c r="G26" s="26"/>
     </x:row>
     <x:row r="27" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="28" ht="20.10000000000000142109" customHeight="1"/>
@@ -1942,7 +1950,7 @@
   </x:sheetPr>
   <x:dimension ref="A1:G26"/>
   <x:sheetViews>
-    <x:sheetView tabSelected="1" topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
+    <x:sheetView topLeftCell="A1" zoomScale="145" zoomScaleNormal="145" zoomScaleSheetLayoutView="145" workbookViewId="0">
       <x:selection activeCell="A1" activeCellId="0" sqref="A1:G1"/>
     </x:sheetView>
   </x:sheetViews>
@@ -1956,302 +1964,302 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:7" ht="39.95000000000000284217" customHeight="1">
-      <x:c r="A1" s="8" t="s">
-        <x:v>28</x:v>
-      </x:c>
-      <x:c r="B1" s="8"/>
-      <x:c r="C1" s="8"/>
-      <x:c r="D1" s="8"/>
-      <x:c r="E1" s="8"/>
-      <x:c r="F1" s="8"/>
-      <x:c r="G1" s="8"/>
+      <x:c r="A1" s="9" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B1" s="9"/>
+      <x:c r="C1" s="9"/>
+      <x:c r="D1" s="9"/>
+      <x:c r="E1" s="9"/>
+      <x:c r="F1" s="9"/>
+      <x:c r="G1" s="9"/>
     </x:row>
     <x:row r="2" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="3" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A3" s="1" t="s">
-        <x:v>80</x:v>
-      </x:c>
-      <x:c r="B3" s="9" t="s">
-        <x:v>71</x:v>
-      </x:c>
-      <x:c r="C3" s="9"/>
-      <x:c r="D3" s="9"/>
-      <x:c r="E3" s="9"/>
-      <x:c r="F3" s="9"/>
-      <x:c r="G3" s="9"/>
+        <x:v>83</x:v>
+      </x:c>
+      <x:c r="B3" s="10" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="C3" s="10"/>
+      <x:c r="D3" s="10"/>
+      <x:c r="E3" s="10"/>
+      <x:c r="F3" s="10"/>
+      <x:c r="G3" s="10"/>
     </x:row>
     <x:row r="4" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A4" s="1" t="s">
-        <x:v>84</x:v>
-      </x:c>
-      <x:c r="B4" s="10" t="s">
-        <x:v>83</x:v>
-      </x:c>
-      <x:c r="C4" s="10"/>
-      <x:c r="D4" s="10"/>
+        <x:v>78</x:v>
+      </x:c>
+      <x:c r="B4" s="11" t="s">
+        <x:v>86</x:v>
+      </x:c>
+      <x:c r="C4" s="11"/>
+      <x:c r="D4" s="11"/>
       <x:c r="E4" s="1" t="s">
-        <x:v>79</x:v>
-      </x:c>
-      <x:c r="F4" s="11">
+        <x:v>80</x:v>
+      </x:c>
+      <x:c r="F4" s="12">
         <x:v>45775</x:v>
       </x:c>
-      <x:c r="G4" s="10"/>
+      <x:c r="G4" s="11"/>
     </x:row>
     <x:row r="5" spans="1:7" ht="26.10000000000000142109" customHeight="1">
       <x:c r="A5" s="1" t="s">
-        <x:v>86</x:v>
-      </x:c>
-      <x:c r="B5" s="9" t="s">
-        <x:v>54</x:v>
-      </x:c>
-      <x:c r="C5" s="9"/>
-      <x:c r="D5" s="9"/>
-      <x:c r="E5" s="9"/>
-      <x:c r="F5" s="9"/>
-      <x:c r="G5" s="9"/>
+        <x:v>81</x:v>
+      </x:c>
+      <x:c r="B5" s="10" t="s">
+        <x:v>41</x:v>
+      </x:c>
+      <x:c r="C5" s="10"/>
+      <x:c r="D5" s="10"/>
+      <x:c r="E5" s="10"/>
+      <x:c r="F5" s="10"/>
+      <x:c r="G5" s="10"/>
     </x:row>
     <x:row r="6" spans="1:7" ht="69.75" customHeight="1">
       <x:c r="A6" s="1" t="s">
-        <x:v>25</x:v>
-      </x:c>
-      <x:c r="B6" s="12" t="s">
-        <x:v>37</x:v>
-      </x:c>
-      <x:c r="C6" s="13"/>
-      <x:c r="D6" s="13"/>
-      <x:c r="E6" s="13"/>
-      <x:c r="F6" s="13"/>
-      <x:c r="G6" s="14"/>
+        <x:v>20</x:v>
+      </x:c>
+      <x:c r="B6" s="13" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="C6" s="14"/>
+      <x:c r="D6" s="14"/>
+      <x:c r="E6" s="14"/>
+      <x:c r="F6" s="14"/>
+      <x:c r="G6" s="15"/>
     </x:row>
     <x:row r="7" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A7" s="15" t="s">
-        <x:v>62</x:v>
-      </x:c>
-      <x:c r="B7" s="17" t="s">
-        <x:v>87</x:v>
-      </x:c>
-      <x:c r="C7" s="17"/>
-      <x:c r="D7" s="17"/>
-      <x:c r="E7" s="17"/>
-      <x:c r="F7" s="17"/>
-      <x:c r="G7" s="17"/>
+      <x:c r="A7" s="16" t="s">
+        <x:v>46</x:v>
+      </x:c>
+      <x:c r="B7" s="18" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="C7" s="18"/>
+      <x:c r="D7" s="18"/>
+      <x:c r="E7" s="18"/>
+      <x:c r="F7" s="18"/>
+      <x:c r="G7" s="18"/>
     </x:row>
     <x:row r="8" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A8" s="16"/>
-      <x:c r="B8" s="17" t="s">
+      <x:c r="A8" s="17"/>
+      <x:c r="B8" s="18" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="C8" s="18"/>
+      <x:c r="D8" s="18"/>
+      <x:c r="E8" s="18"/>
+      <x:c r="F8" s="18"/>
+      <x:c r="G8" s="18"/>
+    </x:row>
+    <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A9" s="17"/>
+      <x:c r="B9" s="18" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C9" s="18"/>
+      <x:c r="D9" s="18"/>
+      <x:c r="E9" s="18"/>
+      <x:c r="F9" s="18"/>
+      <x:c r="G9" s="18"/>
+    </x:row>
+    <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
+      <x:c r="A10" s="16" t="s">
+        <x:v>63</x:v>
+      </x:c>
+      <x:c r="B10" s="1" t="s">
+        <x:v>56</x:v>
+      </x:c>
+      <x:c r="C10" s="11"/>
+      <x:c r="D10" s="11"/>
+      <x:c r="E10" s="11"/>
+      <x:c r="F10" s="11"/>
+      <x:c r="G10" s="11"/>
+    </x:row>
+    <x:row r="11" spans="1:7" ht="120" customHeight="1">
+      <x:c r="A11" s="17"/>
+      <x:c r="B11" s="1" t="s">
+        <x:v>55</x:v>
+      </x:c>
+      <x:c r="C11" s="11" t="s">
+        <x:v>48</x:v>
+      </x:c>
+      <x:c r="D11" s="11"/>
+      <x:c r="E11" s="11"/>
+      <x:c r="F11" s="11"/>
+      <x:c r="G11" s="11"/>
+    </x:row>
+    <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
+      <x:c r="A12" s="17"/>
+      <x:c r="B12" s="1" t="s">
+        <x:v>66</x:v>
+      </x:c>
+      <x:c r="C12" s="11"/>
+      <x:c r="D12" s="11"/>
+      <x:c r="E12" s="11"/>
+      <x:c r="F12" s="11"/>
+      <x:c r="G12" s="11"/>
+    </x:row>
+    <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A13" s="19" t="s">
+        <x:v>45</x:v>
+      </x:c>
+      <x:c r="B13" s="17" t="s">
+        <x:v>60</x:v>
+      </x:c>
+      <x:c r="C13" s="17"/>
+      <x:c r="D13" s="17" t="s">
+        <x:v>44</x:v>
+      </x:c>
+      <x:c r="E13" s="17"/>
+      <x:c r="F13" s="17" t="s">
+        <x:v>58</x:v>
+      </x:c>
+      <x:c r="G13" s="17"/>
+    </x:row>
+    <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A14" s="20"/>
+      <x:c r="B14" s="11" t="s">
+        <x:v>52</x:v>
+      </x:c>
+      <x:c r="C14" s="11"/>
+      <x:c r="D14" s="11" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="E14" s="11"/>
+      <x:c r="F14" s="11"/>
+      <x:c r="G14" s="11"/>
+    </x:row>
+    <x:row r="15" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A15" s="19"/>
+      <x:c r="B15" s="21"/>
+      <x:c r="C15" s="22"/>
+      <x:c r="D15" s="21"/>
+      <x:c r="E15" s="22"/>
+      <x:c r="F15" s="21"/>
+      <x:c r="G15" s="22"/>
+    </x:row>
+    <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A16" s="20"/>
+      <x:c r="B16" s="11" t="s">
+        <x:v>65</x:v>
+      </x:c>
+      <x:c r="C16" s="11"/>
+      <x:c r="D16" s="11" t="s">
+        <x:v>71</x:v>
+      </x:c>
+      <x:c r="E16" s="11"/>
+      <x:c r="F16" s="11"/>
+      <x:c r="G16" s="11"/>
+    </x:row>
+    <x:row r="17" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A17" s="20"/>
+      <x:c r="B17" s="11"/>
+      <x:c r="C17" s="11"/>
+      <x:c r="D17" s="11"/>
+      <x:c r="E17" s="11"/>
+      <x:c r="F17" s="11"/>
+      <x:c r="G17" s="11"/>
+    </x:row>
+    <x:row r="18" spans="1:7" ht="55.79999999999999715783" customHeight="1">
+      <x:c r="A18" s="20"/>
+      <x:c r="B18" s="11" t="s">
+        <x:v>57</x:v>
+      </x:c>
+      <x:c r="C18" s="11"/>
+      <x:c r="D18" s="23" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="E18" s="11"/>
+      <x:c r="F18" s="11"/>
+      <x:c r="G18" s="11"/>
+    </x:row>
+    <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
+      <x:c r="A19" s="20"/>
+      <x:c r="B19" s="11"/>
+      <x:c r="C19" s="11"/>
+      <x:c r="D19" s="23"/>
+      <x:c r="E19" s="11"/>
+      <x:c r="F19" s="11"/>
+      <x:c r="G19" s="11"/>
+    </x:row>
+    <x:row r="20" spans="1:7" ht="51.60000000000000142109" customHeight="1">
+      <x:c r="A20" s="20"/>
+      <x:c r="B20" s="24" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C20" s="25"/>
+      <x:c r="D20" s="27" t="s">
         <x:v>70</x:v>
       </x:c>
-      <x:c r="C8" s="17"/>
-      <x:c r="D8" s="17"/>
-      <x:c r="E8" s="17"/>
-      <x:c r="F8" s="17"/>
-      <x:c r="G8" s="17"/>
-    </x:row>
-    <x:row r="9" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A9" s="16"/>
-      <x:c r="B9" s="17" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C9" s="17"/>
-      <x:c r="D9" s="17"/>
-      <x:c r="E9" s="17"/>
-      <x:c r="F9" s="17"/>
-      <x:c r="G9" s="17"/>
-    </x:row>
-    <x:row r="10" spans="1:7" ht="45.95000000000000284217" customHeight="1">
-      <x:c r="A10" s="15" t="s">
-        <x:v>48</x:v>
-      </x:c>
-      <x:c r="B10" s="1" t="s">
-        <x:v>57</x:v>
-      </x:c>
-      <x:c r="C10" s="10"/>
-      <x:c r="D10" s="10"/>
-      <x:c r="E10" s="10"/>
-      <x:c r="F10" s="10"/>
-      <x:c r="G10" s="10"/>
-    </x:row>
-    <x:row r="11" spans="1:7" ht="120" customHeight="1">
-      <x:c r="A11" s="16"/>
-      <x:c r="B11" s="1" t="s">
-        <x:v>61</x:v>
-      </x:c>
-      <x:c r="C11" s="10" t="s">
-        <x:v>59</x:v>
-      </x:c>
-      <x:c r="D11" s="10"/>
-      <x:c r="E11" s="10"/>
-      <x:c r="F11" s="10"/>
-      <x:c r="G11" s="10"/>
-    </x:row>
-    <x:row r="12" spans="1:7" ht="45.95000000000000284217" customHeight="1">
-      <x:c r="A12" s="16"/>
-      <x:c r="B12" s="1" t="s">
-        <x:v>68</x:v>
-      </x:c>
-      <x:c r="C12" s="10"/>
-      <x:c r="D12" s="10"/>
-      <x:c r="E12" s="10"/>
-      <x:c r="F12" s="10"/>
-      <x:c r="G12" s="10"/>
-    </x:row>
-    <x:row r="13" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A13" s="18" t="s">
-        <x:v>55</x:v>
-      </x:c>
-      <x:c r="B13" s="16" t="s">
-        <x:v>45</x:v>
-      </x:c>
-      <x:c r="C13" s="16"/>
-      <x:c r="D13" s="16" t="s">
-        <x:v>53</x:v>
-      </x:c>
-      <x:c r="E13" s="16"/>
-      <x:c r="F13" s="16" t="s">
-        <x:v>47</x:v>
-      </x:c>
-      <x:c r="G13" s="16"/>
-    </x:row>
-    <x:row r="14" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A14" s="19"/>
-      <x:c r="B14" s="10" t="s">
-        <x:v>46</x:v>
-      </x:c>
-      <x:c r="C14" s="10"/>
-      <x:c r="D14" s="10" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="E14" s="10"/>
-      <x:c r="F14" s="10"/>
-      <x:c r="G14" s="10"/>
-    </x:row>
-    <x:row r="15" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A15" s="18"/>
-      <x:c r="B15" s="20"/>
-      <x:c r="C15" s="21"/>
-      <x:c r="D15" s="20"/>
-      <x:c r="E15" s="21"/>
-      <x:c r="F15" s="20"/>
-      <x:c r="G15" s="21"/>
-    </x:row>
-    <x:row r="16" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A16" s="19"/>
-      <x:c r="B16" s="10" t="s">
-        <x:v>52</x:v>
-      </x:c>
-      <x:c r="C16" s="10"/>
-      <x:c r="D16" s="10" t="s">
-        <x:v>39</x:v>
-      </x:c>
-      <x:c r="E16" s="10"/>
-      <x:c r="F16" s="10"/>
-      <x:c r="G16" s="10"/>
-    </x:row>
-    <x:row r="17" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A17" s="19"/>
-      <x:c r="B17" s="10"/>
-      <x:c r="C17" s="10"/>
-      <x:c r="D17" s="10"/>
-      <x:c r="E17" s="10"/>
-      <x:c r="F17" s="10"/>
-      <x:c r="G17" s="10"/>
-    </x:row>
-    <x:row r="18" spans="1:7" ht="55.79999999999999715783" customHeight="1">
-      <x:c r="A18" s="19"/>
-      <x:c r="B18" s="10" t="s">
-        <x:v>67</x:v>
-      </x:c>
-      <x:c r="C18" s="10"/>
-      <x:c r="D18" s="22" t="s">
-        <x:v>38</x:v>
-      </x:c>
-      <x:c r="E18" s="10"/>
-      <x:c r="F18" s="10"/>
-      <x:c r="G18" s="10"/>
-    </x:row>
-    <x:row r="19" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A19" s="19"/>
-      <x:c r="B19" s="10"/>
-      <x:c r="C19" s="10"/>
-      <x:c r="D19" s="22"/>
-      <x:c r="E19" s="10"/>
-      <x:c r="F19" s="10"/>
-      <x:c r="G19" s="10"/>
-    </x:row>
-    <x:row r="20" spans="1:7" ht="51.60000000000000142109" customHeight="1">
-      <x:c r="A20" s="19"/>
-      <x:c r="B20" s="23" t="s">
-        <x:v>30</x:v>
-      </x:c>
-      <x:c r="C20" s="24"/>
-      <x:c r="D20" s="26" t="s">
-        <x:v>4</x:v>
-      </x:c>
-      <x:c r="E20" s="24"/>
-      <x:c r="F20" s="23"/>
-      <x:c r="G20" s="24"/>
+      <x:c r="E20" s="25"/>
+      <x:c r="F20" s="24"/>
+      <x:c r="G20" s="25"/>
     </x:row>
     <x:row r="21" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A21" s="18"/>
-      <x:c r="B21" s="23"/>
-      <x:c r="C21" s="24"/>
-      <x:c r="D21" s="20"/>
-      <x:c r="E21" s="21"/>
-      <x:c r="F21" s="20"/>
-      <x:c r="G21" s="21"/>
+      <x:c r="A21" s="19"/>
+      <x:c r="B21" s="24"/>
+      <x:c r="C21" s="25"/>
+      <x:c r="D21" s="21"/>
+      <x:c r="E21" s="22"/>
+      <x:c r="F21" s="21"/>
+      <x:c r="G21" s="22"/>
     </x:row>
     <x:row r="22" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A22" s="19"/>
-      <x:c r="B22" s="23" t="s">
-        <x:v>56</x:v>
-      </x:c>
-      <x:c r="C22" s="24"/>
-      <x:c r="D22" s="23" t="s">
-        <x:v>17</x:v>
-      </x:c>
-      <x:c r="E22" s="24"/>
-      <x:c r="F22" s="23"/>
-      <x:c r="G22" s="24"/>
+      <x:c r="A22" s="20"/>
+      <x:c r="B22" s="24" t="s">
+        <x:v>54</x:v>
+      </x:c>
+      <x:c r="C22" s="25"/>
+      <x:c r="D22" s="24" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E22" s="25"/>
+      <x:c r="F22" s="24"/>
+      <x:c r="G22" s="25"/>
     </x:row>
     <x:row r="23" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A23" s="19"/>
-      <x:c r="B23" s="23"/>
-      <x:c r="C23" s="24"/>
-      <x:c r="D23" s="23"/>
-      <x:c r="E23" s="24"/>
-      <x:c r="F23" s="23"/>
-      <x:c r="G23" s="24"/>
+      <x:c r="A23" s="20"/>
+      <x:c r="B23" s="24"/>
+      <x:c r="C23" s="25"/>
+      <x:c r="D23" s="24"/>
+      <x:c r="E23" s="25"/>
+      <x:c r="F23" s="24"/>
+      <x:c r="G23" s="25"/>
     </x:row>
     <x:row r="24" spans="1:7" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A24" s="18"/>
-      <x:c r="B24" s="20"/>
-      <x:c r="C24" s="21"/>
-      <x:c r="D24" s="20"/>
-      <x:c r="E24" s="21"/>
-      <x:c r="F24" s="20"/>
-      <x:c r="G24" s="21"/>
+      <x:c r="A24" s="19"/>
+      <x:c r="B24" s="21"/>
+      <x:c r="C24" s="22"/>
+      <x:c r="D24" s="21"/>
+      <x:c r="E24" s="22"/>
+      <x:c r="F24" s="21"/>
+      <x:c r="G24" s="22"/>
     </x:row>
     <x:row r="25" spans="1:7" s="2" customFormat="1" ht="26.10000000000000142109" customHeight="1">
-      <x:c r="A25" s="19"/>
-      <x:c r="B25" s="20"/>
-      <x:c r="C25" s="21"/>
-      <x:c r="D25" s="20"/>
-      <x:c r="E25" s="21"/>
-      <x:c r="F25" s="20"/>
-      <x:c r="G25" s="21"/>
+      <x:c r="A25" s="20"/>
+      <x:c r="B25" s="21"/>
+      <x:c r="C25" s="22"/>
+      <x:c r="D25" s="21"/>
+      <x:c r="E25" s="22"/>
+      <x:c r="F25" s="21"/>
+      <x:c r="G25" s="22"/>
     </x:row>
     <x:row r="26" spans="1:7" ht="239.40000000000000568434" customHeight="1">
       <x:c r="A26" s="1" t="s">
-        <x:v>60</x:v>
-      </x:c>
-      <x:c r="B26" s="25" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="C26" s="25"/>
-      <x:c r="D26" s="25"/>
-      <x:c r="E26" s="25"/>
-      <x:c r="F26" s="25"/>
-      <x:c r="G26" s="25"/>
+        <x:v>53</x:v>
+      </x:c>
+      <x:c r="B26" s="26" t="s">
+        <x:v>29</x:v>
+      </x:c>
+      <x:c r="C26" s="26"/>
+      <x:c r="D26" s="26"/>
+      <x:c r="E26" s="26"/>
+      <x:c r="F26" s="26"/>
+      <x:c r="G26" s="26"/>
     </x:row>
     <x:row r="27" ht="20.10000000000000142109" customHeight="1"/>
     <x:row r="28" ht="20.10000000000000142109" customHeight="1"/>
@@ -2343,7 +2351,7 @@
   <x:sheetPr codeName="Sheet2"/>
   <x:dimension ref="B4:H36"/>
   <x:sheetViews>
-    <x:sheetView topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <x:sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <x:selection activeCell="C10" activeCellId="0" sqref="C10:C10"/>
     </x:sheetView>
   </x:sheetViews>
@@ -2358,94 +2366,94 @@
   <x:sheetData>
     <x:row r="4" spans="2:7">
       <x:c r="B4" t="s">
-        <x:v>81</x:v>
+        <x:v>84</x:v>
       </x:c>
       <x:c r="C4" s="4" t="s">
         <x:v>85</x:v>
       </x:c>
       <x:c r="D4" t="s">
-        <x:v>64</x:v>
+        <x:v>49</x:v>
       </x:c>
       <x:c r="F4" s="2" t="s">
-        <x:v>51</x:v>
+        <x:v>61</x:v>
       </x:c>
       <x:c r="G4" t="s">
-        <x:v>69</x:v>
+        <x:v>67</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="2:8" ht="318" customHeight="1">
       <x:c r="B5" s="4" t="s">
-        <x:v>49</x:v>
+        <x:v>62</x:v>
       </x:c>
       <x:c r="C5" s="4" t="s">
-        <x:v>76</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="F5" t="s">
-        <x:v>27</x:v>
+        <x:v>19</x:v>
       </x:c>
       <x:c r="G5" s="7" t="s">
-        <x:v>7</x:v>
+        <x:v>93</x:v>
       </x:c>
       <x:c r="H5" s="7" t="s">
-        <x:v>8</x:v>
+        <x:v>68</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="2:6">
       <x:c r="B6" s="4" t="s">
-        <x:v>21</x:v>
+        <x:v>36</x:v>
       </x:c>
       <x:c r="F6" t="s">
-        <x:v>50</x:v>
+        <x:v>47</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="2:6">
       <x:c r="B7" s="4"/>
       <x:c r="F7" t="s">
-        <x:v>58</x:v>
+        <x:v>42</x:v>
       </x:c>
     </x:row>
     <x:row r="8" spans="2:6">
       <x:c r="B8" s="4" t="s">
-        <x:v>29</x:v>
+        <x:v>2</x:v>
       </x:c>
       <x:c r="D8" t="s">
-        <x:v>66</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="F8" t="s">
-        <x:v>44</x:v>
+        <x:v>43</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="2:5" ht="65.5">
       <x:c r="B9" s="4" t="s">
-        <x:v>23</x:v>
+        <x:v>38</x:v>
       </x:c>
       <x:c r="C9" s="4" t="s">
-        <x:v>12</x:v>
+        <x:v>32</x:v>
       </x:c>
       <x:c r="D9" t="s">
-        <x:v>36</x:v>
+        <x:v>87</x:v>
       </x:c>
       <x:c r="E9" s="4" t="s">
-        <x:v>1</x:v>
+        <x:v>24</x:v>
       </x:c>
     </x:row>
     <x:row r="10" spans="2:3" ht="81.84999999999999431566">
       <x:c r="B10" s="4" t="s">
-        <x:v>32</x:v>
+        <x:v>76</x:v>
       </x:c>
       <x:c r="C10" s="4" t="s">
-        <x:v>6</x:v>
+        <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="2:4" ht="81.84999999999999431566">
       <x:c r="B11" s="4" t="s">
-        <x:v>92</x:v>
+        <x:v>95</x:v>
       </x:c>
       <x:c r="C11" s="6" t="s">
-        <x:v>0</x:v>
+        <x:v>23</x:v>
       </x:c>
       <x:c r="D11" s="5" t="s">
-        <x:v>40</x:v>
+        <x:v>74</x:v>
       </x:c>
     </x:row>
     <x:row r="12" spans="2:3" ht="98.25">
@@ -2453,7 +2461,7 @@
         <x:v>89</x:v>
       </x:c>
       <x:c r="C12" s="4" t="s">
-        <x:v>9</x:v>
+        <x:v>25</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="2:2">
@@ -2461,97 +2469,97 @@
     </x:row>
     <x:row r="14" spans="2:2" ht="32.75">
       <x:c r="B14" s="4" t="s">
-        <x:v>16</x:v>
+        <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="2:2">
       <x:c r="B15" s="4" t="s">
-        <x:v>34</x:v>
+        <x:v>75</x:v>
       </x:c>
     </x:row>
     <x:row r="16" spans="2:2" ht="32.75">
       <x:c r="B16" s="4" t="s">
-        <x:v>35</x:v>
+        <x:v>88</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="2:2">
       <x:c r="B17" s="4" t="s">
-        <x:v>20</x:v>
+        <x:v>39</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="2:2" ht="49.14999999999999857891">
       <x:c r="B18" s="4" t="s">
-        <x:v>15</x:v>
+        <x:v>28</x:v>
       </x:c>
     </x:row>
     <x:row r="19" spans="2:2">
       <x:c r="B19" s="4" t="s">
-        <x:v>77</x:v>
+        <x:v>15</x:v>
       </x:c>
     </x:row>
     <x:row r="20" spans="2:2">
       <x:c r="B20" s="4" t="s">
-        <x:v>43</x:v>
+        <x:v>13</x:v>
       </x:c>
     </x:row>
     <x:row r="22" spans="2:2">
       <x:c r="B22" s="3" t="s">
-        <x:v>41</x:v>
+        <x:v>72</x:v>
       </x:c>
     </x:row>
     <x:row r="24" spans="2:2">
       <x:c r="B24" t="s">
-        <x:v>5</x:v>
+        <x:v>40</x:v>
       </x:c>
     </x:row>
     <x:row r="25" spans="2:2">
       <x:c r="B25" t="s">
-        <x:v>93</x:v>
+        <x:v>26</x:v>
       </x:c>
     </x:row>
     <x:row r="26" spans="2:2" ht="19.30000000000000071054">
-      <x:c r="B26" s="27" t="s">
-        <x:v>2</x:v>
+      <x:c r="B26" s="8" t="s">
+        <x:v>64</x:v>
       </x:c>
     </x:row>
     <x:row r="27" spans="2:2" ht="19.30000000000000071054">
-      <x:c r="B27" s="27"/>
+      <x:c r="B27" s="8"/>
     </x:row>
     <x:row r="28" spans="2:2" ht="37.10000000000000142109">
-      <x:c r="B28" s="27" t="s">
-        <x:v>72</x:v>
+      <x:c r="B28" s="8" t="s">
+        <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="29" spans="2:2" ht="19.30000000000000071054">
-      <x:c r="B29" s="27"/>
+      <x:c r="B29" s="8"/>
     </x:row>
     <x:row r="30" spans="2:2" ht="37.10000000000000142109">
-      <x:c r="B30" s="27" t="s">
-        <x:v>94</x:v>
+      <x:c r="B30" s="8" t="s">
+        <x:v>73</x:v>
       </x:c>
     </x:row>
     <x:row r="31" spans="2:2" ht="19.30000000000000071054">
-      <x:c r="B31" s="27"/>
+      <x:c r="B31" s="8"/>
     </x:row>
     <x:row r="32" spans="2:2" ht="37.10000000000000142109">
-      <x:c r="B32" s="27" t="s">
-        <x:v>95</x:v>
+      <x:c r="B32" s="8" t="s">
+        <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="33" spans="2:2" ht="19.30000000000000071054">
-      <x:c r="B33" s="27"/>
+      <x:c r="B33" s="8"/>
     </x:row>
     <x:row r="34" spans="2:2" ht="37.10000000000000142109">
-      <x:c r="B34" s="27" t="s">
-        <x:v>73</x:v>
+      <x:c r="B34" s="8" t="s">
+        <x:v>22</x:v>
       </x:c>
     </x:row>
     <x:row r="35" spans="2:2" ht="19.30000000000000071054">
-      <x:c r="B35" s="27"/>
+      <x:c r="B35" s="8"/>
     </x:row>
     <x:row r="36" spans="2:2" ht="19.30000000000000071054">
-      <x:c r="B36" s="27" t="s">
-        <x:v>3</x:v>
+      <x:c r="B36" s="8" t="s">
+        <x:v>34</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
